--- a/input_data/ccrvb39_batch1and2_RAW_datasets.xlsx
+++ b/input_data/ccrvb39_batch1and2_RAW_datasets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="293">
   <si>
     <t>NA</t>
   </si>
@@ -782,18 +782,6 @@
     <t xml:space="preserve">Pct_TNFa_Neutrophil</t>
   </si>
   <si>
-    <t xml:space="preserve">Pct_Macrophages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pct_Macrophages_IL8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pct_Macrophages_IL10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pct_Macrophages_TNFa</t>
-  </si>
-  <si>
     <t xml:space="preserve">batch1</t>
   </si>
   <si>
@@ -3456,7 +3444,7 @@
         <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G2" t="n">
         <v>121</v>
@@ -3509,7 +3497,7 @@
         <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G3" t="n">
         <v>184</v>
@@ -3562,7 +3550,7 @@
         <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G4" t="n">
         <v>261</v>
@@ -3615,7 +3603,7 @@
         <v>131</v>
       </c>
       <c r="F5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G5" t="n">
         <v>122</v>
@@ -3668,7 +3656,7 @@
         <v>131</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G6" t="n">
         <v>61</v>
@@ -3721,7 +3709,7 @@
         <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G7" t="n">
         <v>838</v>
@@ -3774,7 +3762,7 @@
         <v>131</v>
       </c>
       <c r="F8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G8" t="n">
         <v>501</v>
@@ -3827,7 +3815,7 @@
         <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G9" t="n">
         <v>770</v>
@@ -3880,7 +3868,7 @@
         <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G10" t="n">
         <v>354</v>
@@ -3933,7 +3921,7 @@
         <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G11" t="n">
         <v>212</v>
@@ -3986,7 +3974,7 @@
         <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G12" t="n">
         <v>82</v>
@@ -4039,7 +4027,7 @@
         <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G13" t="n">
         <v>158</v>
@@ -4092,7 +4080,7 @@
         <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G14" t="n">
         <v>158</v>
@@ -4145,7 +4133,7 @@
         <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G15" t="n">
         <v>237</v>
@@ -4198,7 +4186,7 @@
         <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G16" t="n">
         <v>43</v>
@@ -4251,7 +4239,7 @@
         <v>131</v>
       </c>
       <c r="F17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G17" t="n">
         <v>190</v>
@@ -4304,7 +4292,7 @@
         <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G18" t="n">
         <v>236</v>
@@ -4357,7 +4345,7 @@
         <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G19" t="n">
         <v>250</v>
@@ -4410,7 +4398,7 @@
         <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G20" t="n">
         <v>220</v>
@@ -4463,7 +4451,7 @@
         <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G21" t="n">
         <v>88</v>
@@ -4516,7 +4504,7 @@
         <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G22" t="n">
         <v>180</v>
@@ -4569,7 +4557,7 @@
         <v>131</v>
       </c>
       <c r="F23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G23" t="n">
         <v>380</v>
@@ -4622,7 +4610,7 @@
         <v>131</v>
       </c>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G24" t="n">
         <v>100</v>
@@ -4675,7 +4663,7 @@
         <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G25" t="n">
         <v>174</v>
@@ -4728,7 +4716,7 @@
         <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G26" t="n">
         <v>42</v>
@@ -4781,7 +4769,7 @@
         <v>131</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G27" t="n">
         <v>104</v>
@@ -4834,7 +4822,7 @@
         <v>131</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G28" t="n">
         <v>90</v>
@@ -4887,7 +4875,7 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G29" t="n">
         <v>198</v>
@@ -4940,7 +4928,7 @@
         <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G30" t="n">
         <v>561</v>
@@ -4993,7 +4981,7 @@
         <v>131</v>
       </c>
       <c r="F31" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G31" t="n">
         <v>58</v>
@@ -5046,7 +5034,7 @@
         <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G32" t="n">
         <v>146</v>
@@ -5099,7 +5087,7 @@
         <v>131</v>
       </c>
       <c r="F33" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G33" t="n">
         <v>166</v>
@@ -5152,7 +5140,7 @@
         <v>131</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G34" t="n">
         <v>157</v>
@@ -5205,7 +5193,7 @@
         <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G35" t="n">
         <v>218</v>
@@ -5258,7 +5246,7 @@
         <v>131</v>
       </c>
       <c r="F36" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G36" t="n">
         <v>132</v>
@@ -5311,7 +5299,7 @@
         <v>131</v>
       </c>
       <c r="F37" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G37" t="n">
         <v>103</v>
@@ -5364,7 +5352,7 @@
         <v>131</v>
       </c>
       <c r="F38" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G38" t="n">
         <v>106</v>
@@ -5417,7 +5405,7 @@
         <v>131</v>
       </c>
       <c r="F39" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G39" t="n">
         <v>95</v>
@@ -5470,7 +5458,7 @@
         <v>131</v>
       </c>
       <c r="F40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G40" t="n">
         <v>249</v>
@@ -5523,7 +5511,7 @@
         <v>131</v>
       </c>
       <c r="F41" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G41" t="n">
         <v>100</v>
@@ -5576,7 +5564,7 @@
         <v>131</v>
       </c>
       <c r="F42" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G42"/>
       <c r="H42" t="n">
@@ -5627,7 +5615,7 @@
         <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G43"/>
       <c r="H43" t="n">
@@ -5678,7 +5666,7 @@
         <v>131</v>
       </c>
       <c r="F44" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G44"/>
       <c r="H44" t="n">
@@ -5729,7 +5717,7 @@
         <v>131</v>
       </c>
       <c r="F45" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G45"/>
       <c r="H45" t="n">
@@ -5780,7 +5768,7 @@
         <v>131</v>
       </c>
       <c r="F46" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G46"/>
       <c r="H46" t="n">
@@ -5831,7 +5819,7 @@
         <v>131</v>
       </c>
       <c r="F47" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G47"/>
       <c r="H47" t="n">
@@ -5882,7 +5870,7 @@
         <v>131</v>
       </c>
       <c r="F48" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G48"/>
       <c r="H48" t="n">
@@ -5933,7 +5921,7 @@
         <v>131</v>
       </c>
       <c r="F49" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G49"/>
       <c r="H49" t="n">
@@ -5984,7 +5972,7 @@
         <v>131</v>
       </c>
       <c r="F50" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G50"/>
       <c r="H50" t="n">
@@ -6035,7 +6023,7 @@
         <v>131</v>
       </c>
       <c r="F51" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G51"/>
       <c r="H51" t="n">
@@ -6086,7 +6074,7 @@
         <v>131</v>
       </c>
       <c r="F52" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G52"/>
       <c r="H52" t="n">
@@ -6137,7 +6125,7 @@
         <v>131</v>
       </c>
       <c r="F53" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G53"/>
       <c r="H53" t="n">
@@ -6188,7 +6176,7 @@
         <v>131</v>
       </c>
       <c r="F54" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G54"/>
       <c r="H54" t="n">
@@ -6239,7 +6227,7 @@
         <v>131</v>
       </c>
       <c r="F55" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G55"/>
       <c r="H55" t="n">
@@ -6290,7 +6278,7 @@
         <v>131</v>
       </c>
       <c r="F56" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G56"/>
       <c r="H56" t="n">
@@ -6341,7 +6329,7 @@
         <v>131</v>
       </c>
       <c r="F57" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G57"/>
       <c r="H57" t="n">
@@ -6392,7 +6380,7 @@
         <v>131</v>
       </c>
       <c r="F58" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G58"/>
       <c r="H58" t="n">
@@ -6443,7 +6431,7 @@
         <v>131</v>
       </c>
       <c r="F59" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G59"/>
       <c r="H59" t="n">
@@ -6494,7 +6482,7 @@
         <v>131</v>
       </c>
       <c r="F60" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="n">
@@ -6545,7 +6533,7 @@
         <v>131</v>
       </c>
       <c r="F61" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G61"/>
       <c r="H61" t="n">
@@ -6596,7 +6584,7 @@
         <v>131</v>
       </c>
       <c r="F62" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G62"/>
       <c r="H62" t="n">
@@ -6647,7 +6635,7 @@
         <v>131</v>
       </c>
       <c r="F63" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G63"/>
       <c r="H63" t="n">
@@ -6698,7 +6686,7 @@
         <v>131</v>
       </c>
       <c r="F64" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G64"/>
       <c r="H64" t="n">
@@ -6749,7 +6737,7 @@
         <v>131</v>
       </c>
       <c r="F65" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G65"/>
       <c r="H65" t="n">
@@ -6792,7 +6780,7 @@
         <v>131</v>
       </c>
       <c r="F66" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G66"/>
       <c r="H66" t="n">
@@ -8554,7 +8542,7 @@
         <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G2" t="n">
         <v>212.24102</v>
@@ -8693,7 +8681,7 @@
         <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G3" t="n">
         <v>293.99222</v>
@@ -8832,7 +8820,7 @@
         <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G4" t="n">
         <v>162.73656</v>
@@ -8987,7 +8975,7 @@
         <v>131</v>
       </c>
       <c r="F5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G5" t="n">
         <v>175.28901</v>
@@ -9126,7 +9114,7 @@
         <v>131</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G6" t="n">
         <v>159.91716</v>
@@ -9265,7 +9253,7 @@
         <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G7" t="n">
         <v>310.10507</v>
@@ -9418,7 +9406,7 @@
         <v>131</v>
       </c>
       <c r="F8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G8" t="n">
         <v>171.575</v>
@@ -9571,7 +9559,7 @@
         <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G9" t="n">
         <v>153.82578</v>
@@ -9710,7 +9698,7 @@
         <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G10" t="n">
         <v>180.4138</v>
@@ -9849,7 +9837,7 @@
         <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G11" t="n">
         <v>190.90205</v>
@@ -10004,7 +9992,7 @@
         <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G12" t="n">
         <v>143.95469</v>
@@ -10143,7 +10131,7 @@
         <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G13" t="n">
         <v>176.43313</v>
@@ -10282,7 +10270,7 @@
         <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G14" t="n">
         <v>164.75562</v>
@@ -10437,7 +10425,7 @@
         <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G15" t="n">
         <v>126.75716</v>
@@ -10590,7 +10578,7 @@
         <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G16" t="n">
         <v>134.52625</v>
@@ -10729,7 +10717,7 @@
         <v>131</v>
       </c>
       <c r="F17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G17" t="n">
         <v>150.2884</v>
@@ -10868,7 +10856,7 @@
         <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G18" t="n">
         <v>346.25733</v>
@@ -11023,7 +11011,7 @@
         <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G19" t="n">
         <v>166.40968</v>
@@ -11176,7 +11164,7 @@
         <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G20" t="n">
         <v>142.64319</v>
@@ -11315,7 +11303,7 @@
         <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G21" t="n">
         <v>157.13971</v>
@@ -11454,7 +11442,7 @@
         <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G22" t="n">
         <v>257.19632</v>
@@ -11609,7 +11597,7 @@
         <v>131</v>
       </c>
       <c r="F23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G23" t="n">
         <v>134.21525</v>
@@ -11760,7 +11748,7 @@
         <v>131</v>
       </c>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G24" t="n">
         <v>246.14926</v>
@@ -11899,7 +11887,7 @@
         <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G25" t="n">
         <v>209.72764</v>
@@ -12038,7 +12026,7 @@
         <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G26" t="n">
         <v>384.23607</v>
@@ -12191,7 +12179,7 @@
         <v>131</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G27" t="n">
         <v>181.50161</v>
@@ -12344,7 +12332,7 @@
         <v>131</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G28" t="n">
         <v>233.62492</v>
@@ -12483,7 +12471,7 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G29" t="n">
         <v>220.17914</v>
@@ -12622,7 +12610,7 @@
         <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G30" t="n">
         <v>276.03332</v>
@@ -12775,7 +12763,7 @@
         <v>131</v>
       </c>
       <c r="F31" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G31" t="n">
         <v>297.83226</v>
@@ -12930,7 +12918,7 @@
         <v>210</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G32" t="n">
         <v>33.90651</v>
@@ -13083,7 +13071,7 @@
         <v>210</v>
       </c>
       <c r="F33" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G33" t="n">
         <v>47.54673</v>
@@ -13234,7 +13222,7 @@
         <v>210</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G34" t="n">
         <v>45.786</v>
@@ -13385,7 +13373,7 @@
         <v>210</v>
       </c>
       <c r="F35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G35" t="n">
         <v>50.91259</v>
@@ -13536,7 +13524,7 @@
         <v>210</v>
       </c>
       <c r="F36" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G36" t="n">
         <v>287.52713</v>
@@ -13687,7 +13675,7 @@
         <v>210</v>
       </c>
       <c r="F37" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G37" t="n">
         <v>425.92451</v>
@@ -13838,7 +13826,7 @@
         <v>210</v>
       </c>
       <c r="F38" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G38" t="n">
         <v>635.22113</v>
@@ -13989,7 +13977,7 @@
         <v>210</v>
       </c>
       <c r="F39" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G39" t="n">
         <v>696.3833</v>
@@ -14140,7 +14128,7 @@
         <v>210</v>
       </c>
       <c r="F40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G40" t="n">
         <v>488.56689</v>
@@ -14293,7 +14281,7 @@
         <v>210</v>
       </c>
       <c r="F41" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G41" t="n">
         <v>291.89035</v>
@@ -14442,7 +14430,7 @@
         <v>210</v>
       </c>
       <c r="F42" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G42" t="n">
         <v>50.31914</v>
@@ -14595,7 +14583,7 @@
         <v>210</v>
       </c>
       <c r="F43" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G43" t="n">
         <v>226.85458</v>
@@ -14748,7 +14736,7 @@
         <v>210</v>
       </c>
       <c r="F44" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G44" t="n">
         <v>62.23823</v>
@@ -14899,7 +14887,7 @@
         <v>210</v>
       </c>
       <c r="F45" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G45" t="n">
         <v>14.49713</v>
@@ -15054,7 +15042,7 @@
         <v>210</v>
       </c>
       <c r="F46" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G46" t="n">
         <v>138.59828</v>
@@ -15207,7 +15195,7 @@
         <v>210</v>
       </c>
       <c r="F47" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G47" t="n">
         <v>93.88323</v>
@@ -15360,7 +15348,7 @@
         <v>210</v>
       </c>
       <c r="F48" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G48" t="n">
         <v>117.97443</v>
@@ -15511,7 +15499,7 @@
         <v>210</v>
       </c>
       <c r="F49" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G49" t="n">
         <v>89.98154</v>
@@ -15666,7 +15654,7 @@
         <v>210</v>
       </c>
       <c r="F50" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G50" t="n">
         <v>109.16322</v>
@@ -15817,7 +15805,7 @@
         <v>210</v>
       </c>
       <c r="F51" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G51" t="n">
         <v>178.99244</v>
@@ -15968,7 +15956,7 @@
         <v>210</v>
       </c>
       <c r="F52" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G52" t="n">
         <v>73.99299</v>
@@ -16121,7 +16109,7 @@
         <v>210</v>
       </c>
       <c r="F53" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G53" t="n">
         <v>76.53747</v>
@@ -16274,7 +16262,7 @@
         <v>210</v>
       </c>
       <c r="F54" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G54" t="n">
         <v>502.15093</v>
@@ -16425,7 +16413,7 @@
         <v>210</v>
       </c>
       <c r="F55" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G55" t="n">
         <v>812.3805</v>
@@ -16576,7 +16564,7 @@
         <v>210</v>
       </c>
       <c r="F56" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G56" t="n">
         <v>1266.11139</v>
@@ -16729,7 +16717,7 @@
         <v>210</v>
       </c>
       <c r="F57" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G57" t="n">
         <v>352.18439</v>
@@ -16882,7 +16870,7 @@
         <v>210</v>
       </c>
       <c r="F58" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G58" t="n">
         <v>1610.83758</v>
@@ -17033,7 +17021,7 @@
         <v>210</v>
       </c>
       <c r="F59" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G59" t="n">
         <v>679.74683</v>
@@ -17184,7 +17172,7 @@
         <v>210</v>
       </c>
       <c r="F60" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G60" t="n">
         <v>65.65679</v>
@@ -17335,7 +17323,7 @@
         <v>210</v>
       </c>
       <c r="F61" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G61" t="n">
         <v>164.97794</v>
@@ -17486,7 +17474,7 @@
         <v>210</v>
       </c>
       <c r="F62" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G62" t="n">
         <v>19.49624</v>
@@ -17637,7 +17625,7 @@
         <v>210</v>
       </c>
       <c r="F63" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G63" t="n">
         <v>57.01146</v>
@@ -17790,7 +17778,7 @@
         <v>131</v>
       </c>
       <c r="F64" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G64" t="n">
         <v>183.16864</v>
@@ -17929,7 +17917,7 @@
         <v>131</v>
       </c>
       <c r="F65" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G65" t="n">
         <v>169.41828</v>
@@ -18068,7 +18056,7 @@
         <v>131</v>
       </c>
       <c r="F66" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G66" t="n">
         <v>239.63006</v>
@@ -18221,7 +18209,7 @@
         <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G67" t="n">
         <v>226.90019</v>
@@ -18374,7 +18362,7 @@
         <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G68" t="n">
         <v>260.67035</v>
@@ -18513,7 +18501,7 @@
         <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G69" t="n">
         <v>296.80547</v>
@@ -18652,7 +18640,7 @@
         <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G70" t="n">
         <v>191.57538</v>
@@ -18805,7 +18793,7 @@
         <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G71" t="n">
         <v>225.86177</v>
@@ -18956,7 +18944,7 @@
         <v>131</v>
       </c>
       <c r="F72" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G72" t="n">
         <v>156.205</v>
@@ -19095,7 +19083,7 @@
         <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G73" t="n">
         <v>173.74709</v>
@@ -19234,7 +19222,7 @@
         <v>131</v>
       </c>
       <c r="F74" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G74" t="n">
         <v>161.6116</v>
@@ -19385,7 +19373,7 @@
         <v>131</v>
       </c>
       <c r="F75" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G75" t="n">
         <v>236.27526</v>
@@ -19538,7 +19526,7 @@
         <v>131</v>
       </c>
       <c r="F76" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G76" t="n">
         <v>172.93398</v>
@@ -19677,7 +19665,7 @@
         <v>131</v>
       </c>
       <c r="F77" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G77" t="n">
         <v>150.26973</v>
@@ -19816,7 +19804,7 @@
         <v>131</v>
       </c>
       <c r="F78" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G78" t="n">
         <v>149.9269</v>
@@ -19971,7 +19959,7 @@
         <v>131</v>
       </c>
       <c r="F79" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G79" t="n">
         <v>123.18426</v>
@@ -20126,7 +20114,7 @@
         <v>131</v>
       </c>
       <c r="F80" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G80" t="n">
         <v>316.50014</v>
@@ -20265,7 +20253,7 @@
         <v>131</v>
       </c>
       <c r="F81" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G81" t="n">
         <v>303.53805</v>
@@ -20404,7 +20392,7 @@
         <v>131</v>
       </c>
       <c r="F82" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G82" t="n">
         <v>317.75884</v>
@@ -20557,7 +20545,7 @@
         <v>131</v>
       </c>
       <c r="F83" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G83" t="n">
         <v>192.08505</v>
@@ -20712,7 +20700,7 @@
         <v>210</v>
       </c>
       <c r="F84" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G84" t="n">
         <v>242.17865</v>
@@ -20865,7 +20853,7 @@
         <v>210</v>
       </c>
       <c r="F85" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G85" t="n">
         <v>77.36026</v>
@@ -21018,7 +21006,7 @@
         <v>210</v>
       </c>
       <c r="F86" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G86" t="n">
         <v>17.57283</v>
@@ -21171,7 +21159,7 @@
         <v>210</v>
       </c>
       <c r="F87" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G87" t="n">
         <v>18.53892</v>
@@ -21322,7 +21310,7 @@
         <v>210</v>
       </c>
       <c r="F88" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G88" t="n">
         <v>32.10029</v>
@@ -21475,7 +21463,7 @@
         <v>210</v>
       </c>
       <c r="F89" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G89" t="n">
         <v>6.65862</v>
@@ -21628,7 +21616,7 @@
         <v>210</v>
       </c>
       <c r="F90" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G90" t="n">
         <v>79.67767</v>
@@ -21781,7 +21769,7 @@
         <v>210</v>
       </c>
       <c r="F91" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G91" t="n">
         <v>94.28312</v>
@@ -21930,7 +21918,7 @@
         <v>210</v>
       </c>
       <c r="F92" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G92" t="n">
         <v>25.05236</v>
@@ -22083,7 +22071,7 @@
         <v>210</v>
       </c>
       <c r="F93" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G93" t="n">
         <v>19.82515</v>
@@ -22236,7 +22224,7 @@
         <v>210</v>
       </c>
       <c r="F94" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G94" t="n">
         <v>28.49245</v>
@@ -22389,7 +22377,7 @@
         <v>210</v>
       </c>
       <c r="F95" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G95" t="n">
         <v>40.22081</v>
@@ -22542,7 +22530,7 @@
         <v>210</v>
       </c>
       <c r="F96" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G96" t="n">
         <v>89.05611</v>
@@ -22693,7 +22681,7 @@
         <v>210</v>
       </c>
       <c r="F97" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G97" t="n">
         <v>90.09906</v>
@@ -22844,7 +22832,7 @@
         <v>210</v>
       </c>
       <c r="F98" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G98" t="n">
         <v>218.83358</v>
@@ -31058,7 +31046,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s">
         <v>168</v>
@@ -31198,7 +31186,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B2" t="n">
         <v>1.4273</v>
@@ -31336,7 +31324,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B3" t="n">
         <v>2.33322</v>
@@ -31470,7 +31458,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B4" t="n">
         <v>1.01496</v>
@@ -31608,7 +31596,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B5" t="n">
         <v>3.68571</v>
@@ -31744,7 +31732,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B6" t="n">
         <v>2.07641</v>
@@ -31882,7 +31870,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B7" t="n">
         <v>0.73737</v>
@@ -32018,7 +32006,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B8" t="n">
         <v>0.34867</v>
@@ -32156,7 +32144,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B9" t="n">
         <v>0.75008</v>
@@ -32292,7 +32280,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B10" t="n">
         <v>0.000002980232</v>
@@ -32428,7 +32416,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B11" t="n">
         <v>0.06288</v>
@@ -32568,7 +32556,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B12" t="n">
         <v>0.04487</v>
@@ -32708,7 +32696,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B13" t="n">
         <v>0.04858</v>
@@ -32846,7 +32834,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B14" t="n">
         <v>0.02787</v>
@@ -32986,7 +32974,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B15" t="n">
         <v>0.23232</v>
@@ -33126,7 +33114,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B16" t="n">
         <v>3.08716</v>
@@ -33266,7 +33254,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B17" t="n">
         <v>4.0689</v>
@@ -41947,90 +41935,78 @@
         <v>219</v>
       </c>
       <c r="O1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="P1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="Q1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="R1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="S1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="T1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="U1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="V1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="W1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="X1" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="Y1" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="Z1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="AA1" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="AB1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AC1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AD1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AE1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AG1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AH1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AI1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AJ1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AK1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AL1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AM1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AQ1" t="s">
         <v>242</v>
       </c>
     </row>
@@ -42051,7 +42027,7 @@
         <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G2" t="n">
         <v>0.75399635481362</v>
@@ -42078,90 +42054,78 @@
         <v>27.3534635879218</v>
       </c>
       <c r="O2" t="n">
-        <v>70.5587350971082</v>
+        <v>1.32050939738336</v>
       </c>
       <c r="P2" t="n">
-        <v>0.832510694307338</v>
+        <v>32.9230769230769</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.7671931556433</v>
+        <v>55.3406593406593</v>
       </c>
       <c r="R2" t="n">
-        <v>3.32675222112537</v>
+        <v>97.7582417582418</v>
       </c>
       <c r="S2" t="n">
-        <v>1.32050939738336</v>
+        <v>2.9010989010989</v>
       </c>
       <c r="T2" t="n">
-        <v>32.9230769230769</v>
+        <v>30.5054945054945</v>
       </c>
       <c r="U2" t="n">
-        <v>55.3406593406593</v>
+        <v>3.69230769230769</v>
       </c>
       <c r="V2" t="n">
-        <v>97.7582417582418</v>
+        <v>94.6373626373626</v>
       </c>
       <c r="W2" t="n">
-        <v>2.9010989010989</v>
+        <v>1.58241758241758</v>
       </c>
       <c r="X2" t="n">
-        <v>30.5054945054945</v>
+        <v>0.612368094171184</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.69230769230769</v>
+        <v>0.121893175143079</v>
       </c>
       <c r="Z2" t="n">
-        <v>94.6373626373626</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.58241758241758</v>
+        <v>9.04761904761905</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.612368094171184</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.121893175143079</v>
+        <v>7.61904761904762</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.952380952380952</v>
+        <v>0.253073449344679</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.04761904761905</v>
+        <v>11.4678899082569</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.33333333333333</v>
+        <v>3.6697247706422</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.61904761904762</v>
+        <v>11.9266055045872</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.253073449344679</v>
+        <v>4.81651376146789</v>
       </c>
       <c r="AI2" t="n">
-        <v>11.4678899082569</v>
+        <v>0.237401469683426</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3.6697247706422</v>
+        <v>14.6699266503667</v>
       </c>
       <c r="AK2" t="n">
-        <v>11.9266055045872</v>
+        <v>7.09046454767726</v>
       </c>
       <c r="AL2" t="n">
-        <v>4.81651376146789</v>
+        <v>17.359413202934</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.237401469683426</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>14.6699266503667</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>7.09046454767726</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>17.359413202934</v>
-      </c>
-      <c r="AQ2" t="n">
         <v>4.40097799511002</v>
       </c>
     </row>
@@ -42182,7 +42146,7 @@
         <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G3" t="n">
         <v>0.413044055084334</v>
@@ -42209,90 +42173,78 @@
         <v>30.24</v>
       </c>
       <c r="O3" t="n">
-        <v>60.9836993534578</v>
+        <v>0.359976296401121</v>
       </c>
       <c r="P3" t="n">
-        <v>0.897751994198695</v>
+        <v>14.987714987715</v>
       </c>
       <c r="Q3" t="n">
-        <v>35.1660623640319</v>
+        <v>43.2432432432432</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27628716461204</v>
+        <v>89.4348894348894</v>
       </c>
       <c r="S3" t="n">
-        <v>0.359976296401121</v>
+        <v>6.38820638820639</v>
       </c>
       <c r="T3" t="n">
-        <v>14.987714987715</v>
+        <v>45.7002457002457</v>
       </c>
       <c r="U3" t="n">
-        <v>43.2432432432432</v>
+        <v>10.0737100737101</v>
       </c>
       <c r="V3" t="n">
-        <v>89.4348894348894</v>
+        <v>95.8230958230958</v>
       </c>
       <c r="W3" t="n">
-        <v>6.38820638820639</v>
+        <v>0.245700245700246</v>
       </c>
       <c r="X3" t="n">
-        <v>45.7002457002457</v>
+        <v>0.35201613259864</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.0737100737101</v>
+        <v>0.0725259368670564</v>
       </c>
       <c r="Z3" t="n">
-        <v>95.8230958230958</v>
+        <v>3.65853658536585</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.245700245700246</v>
+        <v>6.09756097560976</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.35201613259864</v>
+        <v>4.8780487804878</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0725259368670564</v>
+        <v>13.4146341463415</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.65853658536585</v>
+        <v>0.107019980011144</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.09756097560976</v>
+        <v>5.78512396694215</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.8780487804878</v>
+        <v>4.13223140495868</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.4146341463415</v>
+        <v>6.61157024793388</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.107019980011144</v>
+        <v>14.0495867768595</v>
       </c>
       <c r="AI3" t="n">
-        <v>5.78512396694215</v>
+        <v>0.172470215720439</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.13223140495868</v>
+        <v>15.8974358974359</v>
       </c>
       <c r="AK3" t="n">
-        <v>6.61157024793388</v>
+        <v>9.74358974358974</v>
       </c>
       <c r="AL3" t="n">
-        <v>14.0495867768595</v>
+        <v>22.051282051282</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.172470215720439</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>15.8974358974359</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9.74358974358974</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>22.051282051282</v>
-      </c>
-      <c r="AQ3" t="n">
         <v>4.1025641025641</v>
       </c>
     </row>
@@ -42313,7 +42265,7 @@
         <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G4" t="n">
         <v>0.512544673104076</v>
@@ -42340,90 +42292,78 @@
         <v>39.383846794338</v>
       </c>
       <c r="O4" t="n">
-        <v>58.9514297979302</v>
+        <v>1.2257627399159</v>
       </c>
       <c r="P4" t="n">
-        <v>0.278991419697847</v>
+        <v>10.9282700421941</v>
       </c>
       <c r="Q4" t="n">
-        <v>58.8742082083136</v>
+        <v>38.1012658227848</v>
       </c>
       <c r="R4" t="n">
-        <v>0.445684406309768</v>
+        <v>94.9367088607595</v>
       </c>
       <c r="S4" t="n">
-        <v>1.2257627399159</v>
+        <v>6.41350210970464</v>
       </c>
       <c r="T4" t="n">
-        <v>10.9282700421941</v>
+        <v>37.3417721518987</v>
       </c>
       <c r="U4" t="n">
-        <v>38.1012658227848</v>
+        <v>8.10126582278481</v>
       </c>
       <c r="V4" t="n">
-        <v>94.9367088607595</v>
+        <v>87.4261603375527</v>
       </c>
       <c r="W4" t="n">
-        <v>6.41350210970464</v>
+        <v>2.0253164556962</v>
       </c>
       <c r="X4" t="n">
-        <v>37.3417721518987</v>
+        <v>0.448929138500846</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.10126582278481</v>
+        <v>0.113783883030168</v>
       </c>
       <c r="Z4" t="n">
-        <v>87.4261603375527</v>
+        <v>1.81818181818182</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.0253164556962</v>
+        <v>5.90909090909091</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.448929138500846</v>
+        <v>1.81818181818182</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.113783883030168</v>
+        <v>10.9090909090909</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.81818181818182</v>
+        <v>0.141712654319391</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.90909090909091</v>
+        <v>12.7737226277372</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.81818181818182</v>
+        <v>8.75912408759124</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.9090909090909</v>
+        <v>14.2335766423358</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.141712654319391</v>
+        <v>8.75912408759124</v>
       </c>
       <c r="AI4" t="n">
-        <v>12.7737226277372</v>
+        <v>0.193432601151286</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.75912408759124</v>
+        <v>25.4010695187166</v>
       </c>
       <c r="AK4" t="n">
-        <v>14.2335766423358</v>
+        <v>12.8342245989305</v>
       </c>
       <c r="AL4" t="n">
-        <v>8.75912408759124</v>
+        <v>28.0748663101604</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.193432601151286</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>25.4010695187166</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>12.8342245989305</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>28.0748663101604</v>
-      </c>
-      <c r="AQ4" t="n">
         <v>1.60427807486631</v>
       </c>
     </row>
@@ -42444,7 +42384,7 @@
         <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G5" t="n">
         <v>0.654736842105263</v>
@@ -42471,90 +42411,78 @@
         <v>29.1223404255319</v>
       </c>
       <c r="O5" t="n">
-        <v>56.6242105263158</v>
+        <v>0.917263157894737</v>
       </c>
       <c r="P5" t="n">
-        <v>0.101500195192683</v>
+        <v>10.3282074822125</v>
       </c>
       <c r="Q5" t="n">
-        <v>23.3517372148793</v>
+        <v>53.7755336240533</v>
       </c>
       <c r="R5" t="n">
-        <v>0.261372297510829</v>
+        <v>94.9047509754418</v>
       </c>
       <c r="S5" t="n">
-        <v>0.917263157894737</v>
+        <v>3.25912324994262</v>
       </c>
       <c r="T5" t="n">
-        <v>10.3282074822125</v>
+        <v>7.5510672481065</v>
       </c>
       <c r="U5" t="n">
-        <v>53.7755336240533</v>
+        <v>3.80996098232729</v>
       </c>
       <c r="V5" t="n">
-        <v>94.9047509754418</v>
+        <v>86.2749598347487</v>
       </c>
       <c r="W5" t="n">
-        <v>3.25912324994262</v>
+        <v>0.642644021115446</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5510672481065</v>
+        <v>0.316421052631579</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.80996098232729</v>
+        <v>0.0492631578947368</v>
       </c>
       <c r="Z5" t="n">
-        <v>86.2749598347487</v>
+        <v>4.7008547008547</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.642644021115446</v>
+        <v>6.41025641025641</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.316421052631579</v>
+        <v>8.97435897435897</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0492631578947368</v>
+        <v>12.3931623931624</v>
       </c>
       <c r="AD5" t="n">
-        <v>4.7008547008547</v>
+        <v>0.0911578947368421</v>
       </c>
       <c r="AE5" t="n">
-        <v>6.41025641025641</v>
+        <v>5.31177829099307</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.97435897435897</v>
+        <v>6.69745958429561</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.3931623931624</v>
+        <v>7.62124711316397</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.0911578947368421</v>
+        <v>10.161662817552</v>
       </c>
       <c r="AI5" t="n">
-        <v>5.31177829099307</v>
+        <v>0.176</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.69745958429561</v>
+        <v>12.5598086124402</v>
       </c>
       <c r="AK5" t="n">
-        <v>7.62124711316397</v>
+        <v>2.87081339712919</v>
       </c>
       <c r="AL5" t="n">
-        <v>10.161662817552</v>
+        <v>12.9186602870813</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>12.5598086124402</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>2.87081339712919</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>12.9186602870813</v>
-      </c>
-      <c r="AQ5" t="n">
         <v>2.27272727272727</v>
       </c>
     </row>
@@ -42602,90 +42530,78 @@
         <v>43.4743875278396</v>
       </c>
       <c r="O6" t="n">
-        <v>50.8300709219858</v>
+        <v>0.358723404255319</v>
       </c>
       <c r="P6" t="n">
-        <v>1.95282850381748</v>
+        <v>23.6457097667062</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.313658079207</v>
+        <v>29.655990510083</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21221592177524</v>
+        <v>74.5353894820087</v>
       </c>
       <c r="S6" t="n">
-        <v>0.358723404255319</v>
+        <v>22.4199288256228</v>
       </c>
       <c r="T6" t="n">
-        <v>23.6457097667062</v>
+        <v>23.8434163701068</v>
       </c>
       <c r="U6" t="n">
-        <v>29.655990510083</v>
+        <v>22.6967180703836</v>
       </c>
       <c r="V6" t="n">
-        <v>74.5353894820087</v>
+        <v>81.415579280348</v>
       </c>
       <c r="W6" t="n">
-        <v>22.4199288256228</v>
+        <v>7.55239224990115</v>
       </c>
       <c r="X6" t="n">
-        <v>23.8434163701068</v>
+        <v>0.260283687943262</v>
       </c>
       <c r="Y6" t="n">
-        <v>22.6967180703836</v>
+        <v>0.0259574468085106</v>
       </c>
       <c r="Z6" t="n">
-        <v>81.415579280348</v>
+        <v>18.0327868852459</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.55239224990115</v>
+        <v>7.65027322404372</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.260283687943262</v>
+        <v>24.5901639344262</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0259574468085106</v>
+        <v>5.46448087431694</v>
       </c>
       <c r="AD6" t="n">
-        <v>18.0327868852459</v>
+        <v>0.0523404255319149</v>
       </c>
       <c r="AE6" t="n">
-        <v>7.65027322404372</v>
+        <v>51.4905149051491</v>
       </c>
       <c r="AF6" t="n">
-        <v>24.5901639344262</v>
+        <v>11.9241192411924</v>
       </c>
       <c r="AG6" t="n">
-        <v>5.46448087431694</v>
+        <v>53.3875338753388</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.0523404255319149</v>
+        <v>4.6070460704607</v>
       </c>
       <c r="AI6" t="n">
-        <v>51.4905149051491</v>
+        <v>0.181985815602837</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11.9241192411924</v>
+        <v>85.1130163678878</v>
       </c>
       <c r="AK6" t="n">
-        <v>53.3875338753388</v>
+        <v>5.84567420109119</v>
       </c>
       <c r="AL6" t="n">
-        <v>4.6070460704607</v>
+        <v>85.6586126266563</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.181985815602837</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>85.1130163678878</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>5.84567420109119</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>85.6586126266563</v>
-      </c>
-      <c r="AQ6" t="n">
         <v>1.16913484021824</v>
       </c>
     </row>
@@ -42706,7 +42622,7 @@
         <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G7" t="n">
         <v>0.266885858093846</v>
@@ -42733,90 +42649,78 @@
         <v>9.32475884244373</v>
       </c>
       <c r="O7" t="n">
-        <v>36.9987010878389</v>
+        <v>0.341979217405423</v>
       </c>
       <c r="P7" t="n">
-        <v>1.23697202413604</v>
+        <v>44.213649851632</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.34997257268239</v>
+        <v>8.01186943620178</v>
       </c>
       <c r="R7" t="n">
-        <v>5.17279210093253</v>
+        <v>50.4451038575668</v>
       </c>
       <c r="S7" t="n">
-        <v>0.341979217405423</v>
+        <v>4.45103857566766</v>
       </c>
       <c r="T7" t="n">
-        <v>44.213649851632</v>
+        <v>3.56083086053412</v>
       </c>
       <c r="U7" t="n">
-        <v>8.01186943620178</v>
+        <v>32.0474777448071</v>
       </c>
       <c r="V7" t="n">
-        <v>50.4451038575668</v>
+        <v>57.2700296735905</v>
       </c>
       <c r="W7" t="n">
-        <v>4.45103857566766</v>
+        <v>20.1780415430267</v>
       </c>
       <c r="X7" t="n">
-        <v>3.56083086053412</v>
+        <v>0.248619905828868</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.0474777448071</v>
+        <v>0.115684364344861</v>
       </c>
       <c r="Z7" t="n">
-        <v>57.2700296735905</v>
+        <v>7.89473684210526</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.1780415430267</v>
+        <v>14.0350877192982</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.248619905828868</v>
+        <v>78.9473684210526</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.115684364344861</v>
+        <v>64.0350877192982</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.89473684210526</v>
+        <v>0.0710342588082481</v>
       </c>
       <c r="AE7" t="n">
-        <v>14.0350877192982</v>
+        <v>24.2857142857143</v>
       </c>
       <c r="AF7" t="n">
-        <v>78.9473684210526</v>
+        <v>22.8571428571429</v>
       </c>
       <c r="AG7" t="n">
-        <v>64.0350877192982</v>
+        <v>57.1428571428571</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0710342588082481</v>
+        <v>22.8571428571429</v>
       </c>
       <c r="AI7" t="n">
-        <v>24.2857142857143</v>
+        <v>0.061901282675759</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22.8571428571429</v>
+        <v>27.8688524590164</v>
       </c>
       <c r="AK7" t="n">
-        <v>57.1428571428571</v>
+        <v>14.7540983606557</v>
       </c>
       <c r="AL7" t="n">
-        <v>22.8571428571429</v>
+        <v>60.655737704918</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.061901282675759</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>27.8688524590164</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>14.7540983606557</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>60.655737704918</v>
-      </c>
-      <c r="AQ7" t="n">
         <v>42.6229508196721</v>
       </c>
     </row>
@@ -42837,7 +42741,7 @@
         <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G8" t="n">
         <v>0.501346702578735</v>
@@ -42864,90 +42768,78 @@
         <v>21.3333333333333</v>
       </c>
       <c r="O8" t="n">
-        <v>27.9940798421291</v>
+        <v>0.30400810688285</v>
       </c>
       <c r="P8" t="n">
-        <v>2.53869969040248</v>
+        <v>32.0175438596491</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.2843534174804</v>
+        <v>14.9122807017544</v>
       </c>
       <c r="R8" t="n">
-        <v>4.9440342938795</v>
+        <v>58.3333333333333</v>
       </c>
       <c r="S8" t="n">
-        <v>0.30400810688285</v>
+        <v>3.07017543859649</v>
       </c>
       <c r="T8" t="n">
-        <v>32.0175438596491</v>
+        <v>7.01754385964912</v>
       </c>
       <c r="U8" t="n">
-        <v>14.9122807017544</v>
+        <v>9.21052631578947</v>
       </c>
       <c r="V8" t="n">
-        <v>58.3333333333333</v>
+        <v>92.5438596491228</v>
       </c>
       <c r="W8" t="n">
-        <v>3.07017543859649</v>
+        <v>6.14035087719298</v>
       </c>
       <c r="X8" t="n">
-        <v>7.01754385964912</v>
+        <v>0.1906717512467</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.21052631578947</v>
+        <v>0.0226672711272301</v>
       </c>
       <c r="Z8" t="n">
-        <v>92.5438596491228</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.14035087719298</v>
+        <v>23.5294117647059</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.1906717512467</v>
+        <v>64.7058823529412</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0226672711272301</v>
+        <v>41.1764705882353</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.88235294117647</v>
+        <v>0.0600016000426678</v>
       </c>
       <c r="AE8" t="n">
-        <v>23.5294117647059</v>
+        <v>22.2222222222222</v>
       </c>
       <c r="AF8" t="n">
-        <v>64.7058823529412</v>
+        <v>15.5555555555556</v>
       </c>
       <c r="AG8" t="n">
-        <v>41.1764705882353</v>
+        <v>57.7777777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0600016000426678</v>
+        <v>28.8888888888889</v>
       </c>
       <c r="AI8" t="n">
-        <v>22.2222222222222</v>
+        <v>0.108002880076802</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15.5555555555556</v>
+        <v>19.7530864197531</v>
       </c>
       <c r="AK8" t="n">
-        <v>57.7777777777778</v>
+        <v>6.17283950617284</v>
       </c>
       <c r="AL8" t="n">
-        <v>28.8888888888889</v>
+        <v>39.5061728395062</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.108002880076802</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>19.7530864197531</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>6.17283950617284</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>39.5061728395062</v>
-      </c>
-      <c r="AQ8" t="n">
         <v>14.8148148148148</v>
       </c>
     </row>
@@ -42968,7 +42860,7 @@
         <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G9" t="n">
         <v>1.28013101380578</v>
@@ -42995,90 +42887,78 @@
         <v>33.9160839160839</v>
       </c>
       <c r="O9" t="n">
-        <v>59.514140183755</v>
+        <v>0.603192444328033</v>
       </c>
       <c r="P9" t="n">
-        <v>0.262782330772452</v>
+        <v>95.4890387858347</v>
       </c>
       <c r="Q9" t="n">
-        <v>28.1941940059991</v>
+        <v>12.5632377740304</v>
       </c>
       <c r="R9" t="n">
-        <v>1.22289923686302</v>
+        <v>98.9881956155143</v>
       </c>
       <c r="S9" t="n">
-        <v>0.603192444328033</v>
+        <v>0.0843170320404722</v>
       </c>
       <c r="T9" t="n">
-        <v>95.4890387858347</v>
+        <v>0.379426644182125</v>
       </c>
       <c r="U9" t="n">
-        <v>12.5632377740304</v>
+        <v>0.295109612141653</v>
       </c>
       <c r="V9" t="n">
-        <v>98.9881956155143</v>
+        <v>98.3558178752108</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0843170320404722</v>
+        <v>1.64418212478921</v>
       </c>
       <c r="X9" t="n">
-        <v>0.379426644182125</v>
+        <v>0.7351725786477</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.295109612141653</v>
+        <v>0.356778667534667</v>
       </c>
       <c r="Z9" t="n">
-        <v>98.3558178752108</v>
+        <v>1.14041339985745</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.64418212478921</v>
+        <v>8.98075552387741</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.7351725786477</v>
+        <v>2.77975766215253</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.356778667534667</v>
+        <v>19.3157519600855</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.14041339985745</v>
+        <v>0.140880528734288</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.98075552387741</v>
+        <v>6.67870036101083</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.77975766215253</v>
+        <v>6.67870036101083</v>
       </c>
       <c r="AG9" t="n">
-        <v>19.3157519600855</v>
+        <v>10.8303249097473</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.140880528734288</v>
+        <v>10.8303249097473</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.67870036101083</v>
+        <v>0.237513382378745</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.67870036101083</v>
+        <v>13.3832976445396</v>
       </c>
       <c r="AK9" t="n">
-        <v>10.8303249097473</v>
+        <v>8.99357601713062</v>
       </c>
       <c r="AL9" t="n">
-        <v>10.8303249097473</v>
+        <v>14.9892933618844</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.237513382378745</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>13.3832976445396</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8.99357601713062</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>14.9892933618844</v>
-      </c>
-      <c r="AQ9" t="n">
         <v>6.63811563169165</v>
       </c>
     </row>
@@ -43099,7 +42979,7 @@
         <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G10" t="n">
         <v>0.387935656836461</v>
@@ -43126,90 +43006,78 @@
         <v>9.55269143290371</v>
       </c>
       <c r="O10" t="n">
-        <v>77.8820375335121</v>
+        <v>0.157640750670241</v>
       </c>
       <c r="P10" t="n">
-        <v>0.280378657487091</v>
+        <v>61.8197278911565</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.5220309810671</v>
+        <v>26.9557823129252</v>
       </c>
       <c r="R10" t="n">
-        <v>2.11411359724613</v>
+        <v>93.6224489795918</v>
       </c>
       <c r="S10" t="n">
-        <v>0.157640750670241</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="T10" t="n">
-        <v>61.8197278911565</v>
+        <v>3.65646258503401</v>
       </c>
       <c r="U10" t="n">
-        <v>26.9557823129252</v>
+        <v>1.53061224489796</v>
       </c>
       <c r="V10" t="n">
-        <v>93.6224489795918</v>
+        <v>96.1734693877551</v>
       </c>
       <c r="W10" t="n">
-        <v>0.595238095238095</v>
+        <v>3.48639455782313</v>
       </c>
       <c r="X10" t="n">
-        <v>3.65646258503401</v>
+        <v>0.10455764075067</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.53061224489796</v>
+        <v>0.0408847184986595</v>
       </c>
       <c r="Z10" t="n">
-        <v>96.1734693877551</v>
+        <v>7.86885245901639</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.48639455782313</v>
+        <v>7.21311475409836</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.10455764075067</v>
+        <v>16.3934426229508</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0408847184986595</v>
+        <v>34.4262295081967</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.86885245901639</v>
+        <v>0.0191689008042895</v>
       </c>
       <c r="AE10" t="n">
-        <v>7.21311475409836</v>
+        <v>9.79020979020979</v>
       </c>
       <c r="AF10" t="n">
-        <v>16.3934426229508</v>
+        <v>8.39160839160839</v>
       </c>
       <c r="AG10" t="n">
-        <v>34.4262295081967</v>
+        <v>12.5874125874126</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0191689008042895</v>
+        <v>14.6853146853147</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.79020979020979</v>
+        <v>0.0445040214477212</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.39160839160839</v>
+        <v>11.4457831325301</v>
       </c>
       <c r="AK10" t="n">
-        <v>12.5874125874126</v>
+        <v>9.03614457831325</v>
       </c>
       <c r="AL10" t="n">
-        <v>14.6853146853147</v>
+        <v>12.3493975903614</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0445040214477212</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>11.4457831325301</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>9.03614457831325</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>12.3493975903614</v>
-      </c>
-      <c r="AQ10" t="n">
         <v>3.01204819277108</v>
       </c>
     </row>
@@ -43257,90 +43125,78 @@
         <v>16.4367816091954</v>
       </c>
       <c r="O11" t="n">
-        <v>61.2121212121212</v>
+        <v>0.209939393939394</v>
       </c>
       <c r="P11" t="n">
-        <v>0.238811881188119</v>
+        <v>7.79445727482679</v>
       </c>
       <c r="Q11" t="n">
-        <v>61.7821782178218</v>
+        <v>42.1189376443418</v>
       </c>
       <c r="R11" t="n">
-        <v>0.367326732673267</v>
+        <v>96.3337182448037</v>
       </c>
       <c r="S11" t="n">
-        <v>0.209939393939394</v>
+        <v>22.1997690531178</v>
       </c>
       <c r="T11" t="n">
-        <v>7.79445727482679</v>
+        <v>12.8175519630485</v>
       </c>
       <c r="U11" t="n">
-        <v>42.1189376443418</v>
+        <v>22.8348729792148</v>
       </c>
       <c r="V11" t="n">
-        <v>96.3337182448037</v>
+        <v>90.5600461893764</v>
       </c>
       <c r="W11" t="n">
-        <v>22.1997690531178</v>
+        <v>5.39838337182448</v>
       </c>
       <c r="X11" t="n">
-        <v>12.8175519630485</v>
+        <v>0.121515151515152</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.8348729792148</v>
+        <v>0.0282424242424242</v>
       </c>
       <c r="Z11" t="n">
-        <v>90.5600461893764</v>
+        <v>40.5579399141631</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.39838337182448</v>
+        <v>9.87124463519313</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.121515151515152</v>
+        <v>41.2017167381974</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0282424242424242</v>
+        <v>35.4077253218884</v>
       </c>
       <c r="AD11" t="n">
-        <v>40.5579399141631</v>
+        <v>0.0547878787878788</v>
       </c>
       <c r="AE11" t="n">
-        <v>9.87124463519313</v>
+        <v>63.0530973451327</v>
       </c>
       <c r="AF11" t="n">
-        <v>41.2017167381974</v>
+        <v>4.0929203539823</v>
       </c>
       <c r="AG11" t="n">
-        <v>35.4077253218884</v>
+        <v>63.495575221239</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.0547878787878788</v>
+        <v>17.8097345132743</v>
       </c>
       <c r="AI11" t="n">
-        <v>63.0530973451327</v>
+        <v>0.0384848484848485</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4.0929203539823</v>
+        <v>73.7007874015748</v>
       </c>
       <c r="AK11" t="n">
-        <v>63.495575221239</v>
+        <v>5.66929133858268</v>
       </c>
       <c r="AL11" t="n">
-        <v>17.8097345132743</v>
+        <v>74.488188976378</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.0384848484848485</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>73.7007874015748</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>5.66929133858268</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>74.488188976378</v>
-      </c>
-      <c r="AQ11" t="n">
         <v>0.31496062992126</v>
       </c>
     </row>
@@ -43361,7 +43217,7 @@
         <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G12" t="n">
         <v>0.356742712206924</v>
@@ -43388,90 +43244,78 @@
         <v>20.4761904761905</v>
       </c>
       <c r="O12" t="n">
-        <v>51.8411085831334</v>
+        <v>0.958187554559639</v>
       </c>
       <c r="P12" t="n">
-        <v>1.78732431715725</v>
+        <v>32.4246771879483</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.3643595863166</v>
+        <v>12.5538020086083</v>
       </c>
       <c r="R12" t="n">
-        <v>4.21373640944047</v>
+        <v>87.8048780487805</v>
       </c>
       <c r="S12" t="n">
-        <v>0.958187554559639</v>
+        <v>11.1908177905308</v>
       </c>
       <c r="T12" t="n">
-        <v>32.4246771879483</v>
+        <v>8.39311334289814</v>
       </c>
       <c r="U12" t="n">
-        <v>12.5538020086083</v>
+        <v>13.4863701578192</v>
       </c>
       <c r="V12" t="n">
-        <v>87.8048780487805</v>
+        <v>73.3142037302726</v>
       </c>
       <c r="W12" t="n">
-        <v>11.1908177905308</v>
+        <v>24.1750358680057</v>
       </c>
       <c r="X12" t="n">
-        <v>8.39311334289814</v>
+        <v>0.335434380649285</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.4863701578192</v>
+        <v>0.0611755325364476</v>
       </c>
       <c r="Z12" t="n">
-        <v>73.3142037302726</v>
+        <v>8.98876404494382</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.1750358680057</v>
+        <v>23.5955056179775</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.335434380649285</v>
+        <v>12.3595505617978</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0611755325364476</v>
+        <v>37.0786516853933</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.98876404494382</v>
+        <v>0.0694239189458562</v>
       </c>
       <c r="AE12" t="n">
-        <v>23.5955056179775</v>
+        <v>23.7623762376238</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.3595505617978</v>
+        <v>10.8910891089109</v>
       </c>
       <c r="AG12" t="n">
-        <v>37.0786516853933</v>
+        <v>27.7227722772277</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0694239189458562</v>
+        <v>26.7326732673267</v>
       </c>
       <c r="AI12" t="n">
-        <v>23.7623762376238</v>
+        <v>0.204834929166982</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10.8910891089109</v>
+        <v>29.8657718120805</v>
       </c>
       <c r="AK12" t="n">
-        <v>27.7227722772277</v>
+        <v>14.0939597315436</v>
       </c>
       <c r="AL12" t="n">
-        <v>26.7326732673267</v>
+        <v>33.8926174496644</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.204834929166982</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>29.8657718120805</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>14.0939597315436</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>33.8926174496644</v>
-      </c>
-      <c r="AQ12" t="n">
         <v>30.2013422818792</v>
       </c>
     </row>
@@ -43492,7 +43336,7 @@
         <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G13" t="n">
         <v>0.489827877397357</v>
@@ -43519,90 +43363,78 @@
         <v>13.0630630630631</v>
       </c>
       <c r="O13" t="n">
-        <v>59.0688718025757</v>
+        <v>0.436110693816606</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25157988840593</v>
+        <v>10.8559498956159</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.5697154659515</v>
+        <v>7.30688935281837</v>
       </c>
       <c r="R13" t="n">
-        <v>3.82949536052283</v>
+        <v>91.0229645093946</v>
       </c>
       <c r="S13" t="n">
-        <v>0.436110693816606</v>
+        <v>5.8455114822547</v>
       </c>
       <c r="T13" t="n">
-        <v>10.8559498956159</v>
+        <v>4.07098121085595</v>
       </c>
       <c r="U13" t="n">
-        <v>7.30688935281837</v>
+        <v>6.88935281837161</v>
       </c>
       <c r="V13" t="n">
-        <v>91.0229645093946</v>
+        <v>87.9958246346555</v>
       </c>
       <c r="W13" t="n">
-        <v>5.8455114822547</v>
+        <v>2.71398747390397</v>
       </c>
       <c r="X13" t="n">
-        <v>4.07098121085595</v>
+        <v>0.186644451424643</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.88935281837161</v>
+        <v>0.0792100842631414</v>
       </c>
       <c r="Z13" t="n">
-        <v>87.9958246346555</v>
+        <v>7.47126436781609</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.71398747390397</v>
+        <v>8.04597701149425</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.186644451424643</v>
+        <v>7.47126436781609</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0792100842631414</v>
+        <v>11.4942528735632</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.47126436781609</v>
+        <v>0.0550828746887362</v>
       </c>
       <c r="AE13" t="n">
-        <v>8.04597701149425</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.47126436781609</v>
+        <v>8.26446280991736</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.4942528735632</v>
+        <v>10.7438016528926</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0550828746887362</v>
+        <v>11.5702479338843</v>
       </c>
       <c r="AI13" t="n">
-        <v>9.09090909090909</v>
+        <v>0.0523514924727658</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8.26446280991736</v>
+        <v>34.7826086956522</v>
       </c>
       <c r="AK13" t="n">
-        <v>10.7438016528926</v>
+        <v>6.08695652173913</v>
       </c>
       <c r="AL13" t="n">
-        <v>11.5702479338843</v>
+        <v>36.5217391304348</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0523514924727658</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>34.7826086956522</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>6.08695652173913</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>36.5217391304348</v>
-      </c>
-      <c r="AQ13" t="n">
         <v>5.21739130434783</v>
       </c>
     </row>
@@ -43623,7 +43455,7 @@
         <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G14" t="n">
         <v>1.20602387052428</v>
@@ -43650,90 +43482,78 @@
         <v>26.890756302521</v>
       </c>
       <c r="O14" t="n">
-        <v>64.6417859151409</v>
+        <v>0.606917452977567</v>
       </c>
       <c r="P14" t="n">
-        <v>0.465217443841609</v>
+        <v>19.8198198198198</v>
       </c>
       <c r="Q14" t="n">
-        <v>97.3416146066194</v>
+        <v>29.7297297297297</v>
       </c>
       <c r="R14" t="n">
-        <v>0.448300445883732</v>
+        <v>94.4658944658945</v>
       </c>
       <c r="S14" t="n">
-        <v>0.606917452977567</v>
+        <v>1.28700128700129</v>
       </c>
       <c r="T14" t="n">
-        <v>19.8198198198198</v>
+        <v>5.66280566280566</v>
       </c>
       <c r="U14" t="n">
-        <v>29.7297297297297</v>
+        <v>1.54440154440154</v>
       </c>
       <c r="V14" t="n">
-        <v>94.4658944658945</v>
+        <v>83.9124839124839</v>
       </c>
       <c r="W14" t="n">
-        <v>1.28700128700129</v>
+        <v>6.82110682110682</v>
       </c>
       <c r="X14" t="n">
-        <v>5.66280566280566</v>
+        <v>0.482721989626945</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.54440154440154</v>
+        <v>0.237455477098044</v>
       </c>
       <c r="Z14" t="n">
-        <v>83.9124839124839</v>
+        <v>3.61842105263158</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.82110682110682</v>
+        <v>6.25</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.482721989626945</v>
+        <v>3.94736842105263</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.237455477098044</v>
+        <v>12.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>3.61842105263158</v>
+        <v>0.0898269074548522</v>
       </c>
       <c r="AE14" t="n">
-        <v>6.25</v>
+        <v>15.6521739130435</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.94736842105263</v>
+        <v>11.304347826087</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>15.6521739130435</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.0898269074548522</v>
+        <v>13.9130434782609</v>
       </c>
       <c r="AI14" t="n">
-        <v>15.6521739130435</v>
+        <v>0.155439605074049</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11.304347826087</v>
+        <v>26.1306532663317</v>
       </c>
       <c r="AK14" t="n">
-        <v>15.6521739130435</v>
+        <v>8.5427135678392</v>
       </c>
       <c r="AL14" t="n">
-        <v>13.9130434782609</v>
+        <v>26.1306532663317</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.155439605074049</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>26.1306532663317</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>8.5427135678392</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>26.1306532663317</v>
-      </c>
-      <c r="AQ14" t="n">
         <v>8.04020100502512</v>
       </c>
     </row>
@@ -43754,7 +43574,7 @@
         <v>129</v>
       </c>
       <c r="F15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G15" t="n">
         <v>0.825917431192661</v>
@@ -43781,90 +43601,78 @@
         <v>21.2890625</v>
       </c>
       <c r="O15" t="n">
-        <v>84.0589449541284</v>
+        <v>0.643119266055046</v>
       </c>
       <c r="P15" t="n">
-        <v>0.460303904261154</v>
+        <v>36.69757489301</v>
       </c>
       <c r="Q15" t="n">
-        <v>86.3870645598736</v>
+        <v>14.4793152639087</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53343683577219</v>
+        <v>92.2967189728959</v>
       </c>
       <c r="S15" t="n">
-        <v>0.643119266055046</v>
+        <v>5.74179743223966</v>
       </c>
       <c r="T15" t="n">
-        <v>36.69757489301</v>
+        <v>0.463623395149786</v>
       </c>
       <c r="U15" t="n">
-        <v>14.4793152639087</v>
+        <v>7.16833095577746</v>
       </c>
       <c r="V15" t="n">
-        <v>92.2967189728959</v>
+        <v>87.339514978602</v>
       </c>
       <c r="W15" t="n">
-        <v>5.74179743223966</v>
+        <v>2.42510699001427</v>
       </c>
       <c r="X15" t="n">
-        <v>0.463623395149786</v>
+        <v>0.103669724770642</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.16833095577746</v>
+        <v>0.0511467889908257</v>
       </c>
       <c r="Z15" t="n">
-        <v>87.339514978602</v>
+        <v>3.1390134529148</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.42510699001427</v>
+        <v>10.3139013452915</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.103669724770642</v>
+        <v>3.58744394618834</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0511467889908257</v>
+        <v>15.695067264574</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.1390134529148</v>
+        <v>0.0188073394495413</v>
       </c>
       <c r="AE15" t="n">
-        <v>10.3139013452915</v>
+        <v>13.4146341463415</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.58744394618834</v>
+        <v>14.6341463414634</v>
       </c>
       <c r="AG15" t="n">
-        <v>15.695067264574</v>
+        <v>21.9512195121951</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.0188073394495413</v>
+        <v>10.9756097560976</v>
       </c>
       <c r="AI15" t="n">
-        <v>13.4146341463415</v>
+        <v>0.0337155963302752</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14.6341463414634</v>
+        <v>24.4897959183673</v>
       </c>
       <c r="AK15" t="n">
-        <v>21.9512195121951</v>
+        <v>6.80272108843537</v>
       </c>
       <c r="AL15" t="n">
-        <v>10.9756097560976</v>
+        <v>27.891156462585</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.0337155963302752</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>24.4897959183673</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>6.80272108843537</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>27.891156462585</v>
-      </c>
-      <c r="AQ15" t="n">
         <v>10.2040816326531</v>
       </c>
     </row>
@@ -43912,90 +43720,78 @@
         <v>29.4117647058824</v>
       </c>
       <c r="O16" t="n">
-        <v>38.7266232401765</v>
+        <v>51.4705882352941</v>
       </c>
       <c r="P16" t="n">
-        <v>4.10336408030385</v>
+        <v>0.963212559661394</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.5800325556158</v>
+        <v>30.453781512605</v>
       </c>
       <c r="R16" t="n">
-        <v>1.35648399348888</v>
+        <v>243.63025210084</v>
       </c>
       <c r="S16" t="n">
-        <v>51.4705882352941</v>
+        <v>126.890756302521</v>
       </c>
       <c r="T16" t="n">
-        <v>0.963212559661394</v>
+        <v>167.077717407619</v>
       </c>
       <c r="U16" t="n">
-        <v>30.453781512605</v>
+        <v>17.703085032168</v>
       </c>
       <c r="V16" t="n">
-        <v>243.63025210084</v>
+        <v>399.4167118828</v>
       </c>
       <c r="W16" t="n">
-        <v>126.890756302521</v>
+        <v>5.8522595147663</v>
       </c>
       <c r="X16" t="n">
-        <v>167.077717407619</v>
+        <v>0.422882958604749</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.703085032168</v>
+        <v>0.107690691321706</v>
       </c>
       <c r="Z16" t="n">
-        <v>399.4167118828</v>
+        <v>19.5121951219512</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.8522595147663</v>
+        <v>7.31707317073171</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.422882958604749</v>
+        <v>21.9512195121951</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.107690691321706</v>
+        <v>43.9024390243902</v>
       </c>
       <c r="AD16" t="n">
-        <v>19.5121951219512</v>
+        <v>0.141836520277369</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.31707317073171</v>
+        <v>55.5555555555556</v>
       </c>
       <c r="AF16" t="n">
-        <v>21.9512195121951</v>
+        <v>27.7777777777778</v>
       </c>
       <c r="AG16" t="n">
-        <v>43.9024390243902</v>
+        <v>55.5555555555556</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.141836520277369</v>
+        <v>38.8888888888889</v>
       </c>
       <c r="AI16" t="n">
-        <v>55.5555555555556</v>
+        <v>0.173355747005673</v>
       </c>
       <c r="AJ16" t="n">
-        <v>27.7777777777778</v>
+        <v>50</v>
       </c>
       <c r="AK16" t="n">
-        <v>55.5555555555556</v>
+        <v>13.6363636363636</v>
       </c>
       <c r="AL16" t="n">
-        <v>38.8888888888889</v>
+        <v>51.5151515151515</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.173355747005673</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>13.6363636363636</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>51.5151515151515</v>
-      </c>
-      <c r="AQ16" t="n">
         <v>10.6060606060606</v>
       </c>
     </row>
@@ -44043,90 +43839,78 @@
         <v>10.8711303095752</v>
       </c>
       <c r="O17" t="n">
-        <v>37.681981981982</v>
+        <v>0.515315315315315</v>
       </c>
       <c r="P17" t="n">
-        <v>0.778444545389342</v>
+        <v>41.2587412587413</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.75154804313</v>
+        <v>31.6433566433566</v>
       </c>
       <c r="R17" t="n">
-        <v>5.84168121070122</v>
+        <v>82.6923076923077</v>
       </c>
       <c r="S17" t="n">
-        <v>0.515315315315315</v>
+        <v>35.3846153846154</v>
       </c>
       <c r="T17" t="n">
-        <v>41.2587412587413</v>
+        <v>30.4895104895105</v>
       </c>
       <c r="U17" t="n">
-        <v>31.6433566433566</v>
+        <v>36.3286713286713</v>
       </c>
       <c r="V17" t="n">
-        <v>82.6923076923077</v>
+        <v>76.0839160839161</v>
       </c>
       <c r="W17" t="n">
-        <v>35.3846153846154</v>
+        <v>3.07692307692308</v>
       </c>
       <c r="X17" t="n">
-        <v>30.4895104895105</v>
+        <v>0.0751351351351351</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.3286713286713</v>
+        <v>0.0409009009009009</v>
       </c>
       <c r="Z17" t="n">
-        <v>76.0839160839161</v>
+        <v>46.2555066079295</v>
       </c>
       <c r="AA17" t="n">
-        <v>3.07692307692308</v>
+        <v>31.2775330396476</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0751351351351351</v>
+        <v>50.2202643171806</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0409009009009009</v>
+        <v>22.9074889867841</v>
       </c>
       <c r="AD17" t="n">
-        <v>46.2555066079295</v>
+        <v>0.0154954954954955</v>
       </c>
       <c r="AE17" t="n">
-        <v>31.2775330396476</v>
+        <v>94.1860465116279</v>
       </c>
       <c r="AF17" t="n">
-        <v>50.2202643171806</v>
+        <v>36.046511627907</v>
       </c>
       <c r="AG17" t="n">
-        <v>22.9074889867841</v>
+        <v>96.5116279069768</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.0154954954954955</v>
+        <v>24.4186046511628</v>
       </c>
       <c r="AI17" t="n">
-        <v>94.1860465116279</v>
+        <v>0.0187387387387387</v>
       </c>
       <c r="AJ17" t="n">
-        <v>36.046511627907</v>
+        <v>94.2307692307692</v>
       </c>
       <c r="AK17" t="n">
-        <v>96.5116279069768</v>
+        <v>12.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>24.4186046511628</v>
+        <v>95.1923076923077</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.0187387387387387</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>94.2307692307692</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>95.1923076923077</v>
-      </c>
-      <c r="AQ17" t="n">
         <v>11.5384615384615</v>
       </c>
     </row>
@@ -44174,90 +43958,78 @@
         <v>22.5867112411199</v>
       </c>
       <c r="O18" t="n">
-        <v>49.0963855421687</v>
+        <v>0.365863453815261</v>
       </c>
       <c r="P18" t="n">
-        <v>1.43680981595092</v>
+        <v>35.1262349066959</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.9550102249489</v>
+        <v>44.648737650933</v>
       </c>
       <c r="R18" t="n">
-        <v>2.64069529652352</v>
+        <v>88.0900109769484</v>
       </c>
       <c r="S18" t="n">
-        <v>0.365863453815261</v>
+        <v>29.5279912184413</v>
       </c>
       <c r="T18" t="n">
-        <v>35.1262349066959</v>
+        <v>17.5082327113063</v>
       </c>
       <c r="U18" t="n">
-        <v>44.648737650933</v>
+        <v>31.7508232711306</v>
       </c>
       <c r="V18" t="n">
-        <v>88.0900109769484</v>
+        <v>73.2162458836443</v>
       </c>
       <c r="W18" t="n">
-        <v>29.5279912184413</v>
+        <v>15.2305159165752</v>
       </c>
       <c r="X18" t="n">
-        <v>17.5082327113063</v>
+        <v>0.169779116465863</v>
       </c>
       <c r="Y18" t="n">
-        <v>31.7508232711306</v>
+        <v>0.0924698795180723</v>
       </c>
       <c r="Z18" t="n">
-        <v>73.2162458836443</v>
+        <v>29.6416938110749</v>
       </c>
       <c r="AA18" t="n">
-        <v>15.2305159165752</v>
+        <v>9.12052117263844</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.169779116465863</v>
+        <v>37.6764386536373</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0924698795180723</v>
+        <v>26.8186753528773</v>
       </c>
       <c r="AD18" t="n">
-        <v>29.6416938110749</v>
+        <v>0.0224899598393574</v>
       </c>
       <c r="AE18" t="n">
-        <v>9.12052117263844</v>
+        <v>54.9107142857143</v>
       </c>
       <c r="AF18" t="n">
-        <v>37.6764386536373</v>
+        <v>19.6428571428571</v>
       </c>
       <c r="AG18" t="n">
-        <v>26.8186753528773</v>
+        <v>57.1428571428571</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.0224899598393574</v>
+        <v>8.92857142857143</v>
       </c>
       <c r="AI18" t="n">
-        <v>54.9107142857143</v>
+        <v>0.0548192771084337</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19.6428571428571</v>
+        <v>58.0586080586081</v>
       </c>
       <c r="AK18" t="n">
-        <v>57.1428571428571</v>
+        <v>3.47985347985348</v>
       </c>
       <c r="AL18" t="n">
-        <v>8.92857142857143</v>
+        <v>59.8901098901099</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.0548192771084337</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>58.0586080586081</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>3.47985347985348</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>59.8901098901099</v>
-      </c>
-      <c r="AQ18" t="n">
         <v>3.66300366300366</v>
       </c>
     </row>
@@ -44305,90 +44077,78 @@
         <v>23.3948988566403</v>
       </c>
       <c r="O19" t="n">
-        <v>46.8104221635884</v>
+        <v>0.838918205804749</v>
       </c>
       <c r="P19" t="n">
-        <v>2.22251657868853</v>
+        <v>18.3204906431829</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.173737328189</v>
+        <v>34.061959427583</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18256144612948</v>
+        <v>85.752476804529</v>
       </c>
       <c r="S19" t="n">
-        <v>0.838918205804749</v>
+        <v>37.7103318131782</v>
       </c>
       <c r="T19" t="n">
-        <v>18.3204906431829</v>
+        <v>30.4764900141532</v>
       </c>
       <c r="U19" t="n">
-        <v>34.061959427583</v>
+        <v>40.9655606227394</v>
       </c>
       <c r="V19" t="n">
-        <v>85.752476804529</v>
+        <v>71.4263248938512</v>
       </c>
       <c r="W19" t="n">
-        <v>37.7103318131782</v>
+        <v>11.2124547884888</v>
       </c>
       <c r="X19" t="n">
-        <v>30.4764900141532</v>
+        <v>0.23311345646438</v>
       </c>
       <c r="Y19" t="n">
-        <v>40.9655606227394</v>
+        <v>0.148416886543536</v>
       </c>
       <c r="Z19" t="n">
-        <v>71.4263248938512</v>
+        <v>40.9777777777778</v>
       </c>
       <c r="AA19" t="n">
-        <v>11.2124547884888</v>
+        <v>8.17777777777778</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.23311345646438</v>
+        <v>45.8666666666667</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.148416886543536</v>
+        <v>30.3111111111111</v>
       </c>
       <c r="AD19" t="n">
-        <v>40.9777777777778</v>
+        <v>0.0244063324538259</v>
       </c>
       <c r="AE19" t="n">
-        <v>8.17777777777778</v>
+        <v>61.0810810810811</v>
       </c>
       <c r="AF19" t="n">
-        <v>45.8666666666667</v>
+        <v>10.2702702702703</v>
       </c>
       <c r="AG19" t="n">
-        <v>30.3111111111111</v>
+        <v>65.4054054054054</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.0244063324538259</v>
+        <v>14.0540540540541</v>
       </c>
       <c r="AI19" t="n">
-        <v>61.0810810810811</v>
+        <v>0.0602902374670185</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10.2702702702703</v>
+        <v>88.4026258205689</v>
       </c>
       <c r="AK19" t="n">
-        <v>65.4054054054054</v>
+        <v>7.00218818380744</v>
       </c>
       <c r="AL19" t="n">
-        <v>14.0540540540541</v>
+        <v>89.7155361050328</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.0602902374670185</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>88.4026258205689</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>7.00218818380744</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>89.7155361050328</v>
-      </c>
-      <c r="AQ19" t="n">
         <v>13.1291028446389</v>
       </c>
     </row>
@@ -44436,90 +44196,78 @@
         <v>14.0723270440252</v>
       </c>
       <c r="O20" t="n">
-        <v>26.5254746835443</v>
+        <v>0.327056962025316</v>
       </c>
       <c r="P20" t="n">
-        <v>2.96168598373906</v>
+        <v>3.870343492985</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.1863565595529</v>
+        <v>37.1069182389937</v>
       </c>
       <c r="R20" t="n">
-        <v>3.78904921826999</v>
+        <v>83.0188679245283</v>
       </c>
       <c r="S20" t="n">
-        <v>0.327056962025316</v>
+        <v>37.155297532656</v>
       </c>
       <c r="T20" t="n">
-        <v>3.870343492985</v>
+        <v>23.7542331881955</v>
       </c>
       <c r="U20" t="n">
-        <v>37.1069182389937</v>
+        <v>39.2356071601355</v>
       </c>
       <c r="V20" t="n">
-        <v>83.0188679245283</v>
+        <v>40.7837445573295</v>
       </c>
       <c r="W20" t="n">
-        <v>37.155297532656</v>
+        <v>2.22544750846638</v>
       </c>
       <c r="X20" t="n">
-        <v>23.7542331881955</v>
+        <v>0.115664556962025</v>
       </c>
       <c r="Y20" t="n">
-        <v>39.2356071601355</v>
+        <v>0.0376582278481013</v>
       </c>
       <c r="Z20" t="n">
-        <v>40.7837445573295</v>
+        <v>22.6890756302521</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.22544750846638</v>
+        <v>10.5042016806723</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.115664556962025</v>
+        <v>32.7731092436975</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.0376582278481013</v>
+        <v>11.3445378151261</v>
       </c>
       <c r="AD20" t="n">
-        <v>22.6890756302521</v>
+        <v>0.0414556962025316</v>
       </c>
       <c r="AE20" t="n">
-        <v>10.5042016806723</v>
+        <v>43.1297709923664</v>
       </c>
       <c r="AF20" t="n">
-        <v>32.7731092436975</v>
+        <v>26.3358778625954</v>
       </c>
       <c r="AG20" t="n">
-        <v>11.3445378151261</v>
+        <v>46.5648854961832</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.0414556962025316</v>
+        <v>22.9007633587786</v>
       </c>
       <c r="AI20" t="n">
-        <v>43.1297709923664</v>
+        <v>0.0365506329113924</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26.3358778625954</v>
+        <v>61.4718614718615</v>
       </c>
       <c r="AK20" t="n">
-        <v>46.5648854961832</v>
+        <v>6.49350649350649</v>
       </c>
       <c r="AL20" t="n">
-        <v>22.9007633587786</v>
+        <v>65.3679653679654</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.0365506329113924</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>61.4718614718615</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>6.49350649350649</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>65.3679653679654</v>
-      </c>
-      <c r="AQ20" t="n">
         <v>2.5974025974026</v>
       </c>
     </row>
@@ -44567,90 +44315,78 @@
         <v>15.0643274853801</v>
       </c>
       <c r="O21" t="n">
-        <v>31.4051246537396</v>
+        <v>0.841274238227147</v>
       </c>
       <c r="P21" t="n">
-        <v>1.50212794107919</v>
+        <v>4.80737569970365</v>
       </c>
       <c r="Q21" t="n">
-        <v>98.6870713797438</v>
+        <v>33.7833388212051</v>
       </c>
       <c r="R21" t="n">
-        <v>1.82363447926084</v>
+        <v>71.5344089562068</v>
       </c>
       <c r="S21" t="n">
-        <v>0.841274238227147</v>
+        <v>31.8735594336516</v>
       </c>
       <c r="T21" t="n">
-        <v>4.80737569970365</v>
+        <v>20.59598287784</v>
       </c>
       <c r="U21" t="n">
-        <v>33.7833388212051</v>
+        <v>38.9529140599276</v>
       </c>
       <c r="V21" t="n">
-        <v>71.5344089562068</v>
+        <v>57.5732630885743</v>
       </c>
       <c r="W21" t="n">
-        <v>31.8735594336516</v>
+        <v>1.66282515640435</v>
       </c>
       <c r="X21" t="n">
-        <v>20.59598287784</v>
+        <v>0.270360110803324</v>
       </c>
       <c r="Y21" t="n">
-        <v>38.9529140599276</v>
+        <v>0.0548476454293629</v>
       </c>
       <c r="Z21" t="n">
-        <v>57.5732630885743</v>
+        <v>25.5050505050505</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.66282515640435</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.270360110803324</v>
+        <v>37.1212121212121</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.0548476454293629</v>
+        <v>12.1212121212121</v>
       </c>
       <c r="AD21" t="n">
-        <v>25.5050505050505</v>
+        <v>0.0502770083102493</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.09090909090909</v>
+        <v>45.1790633608815</v>
       </c>
       <c r="AF21" t="n">
-        <v>37.1212121212121</v>
+        <v>14.3250688705234</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.1212121212121</v>
+        <v>49.862258953168</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.0502770083102493</v>
+        <v>8.26446280991736</v>
       </c>
       <c r="AI21" t="n">
-        <v>45.1790633608815</v>
+        <v>0.165235457063712</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14.3250688705234</v>
+        <v>78.7929589270746</v>
       </c>
       <c r="AK21" t="n">
-        <v>49.862258953168</v>
+        <v>4.9455155071249</v>
       </c>
       <c r="AL21" t="n">
-        <v>8.26446280991736</v>
+        <v>81.8105616093881</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.165235457063712</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>78.7929589270746</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>4.9455155071249</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>81.8105616093881</v>
-      </c>
-      <c r="AQ21" t="n">
         <v>5.11316010058676</v>
       </c>
     </row>
@@ -44671,7 +44407,7 @@
         <v>148</v>
       </c>
       <c r="F22" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G22" t="n">
         <v>0.801973799044236</v>
@@ -44698,90 +44434,78 @@
         <v>10.2985074626866</v>
       </c>
       <c r="O22" t="n">
-        <v>78.166970944961</v>
+        <v>0.713284931855815</v>
       </c>
       <c r="P22" t="n">
-        <v>1.18228563151796</v>
+        <v>44.9074074074074</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.2475859405176</v>
+        <v>10.978835978836</v>
       </c>
       <c r="R22" t="n">
-        <v>3.45995075318656</v>
+        <v>97.1560846560847</v>
       </c>
       <c r="S22" t="n">
-        <v>0.713284931855815</v>
+        <v>25.7936507936508</v>
       </c>
       <c r="T22" t="n">
-        <v>44.9074074074074</v>
+        <v>10.9126984126984</v>
       </c>
       <c r="U22" t="n">
-        <v>10.978835978836</v>
+        <v>26.7857142857143</v>
       </c>
       <c r="V22" t="n">
-        <v>97.1560846560847</v>
+        <v>94.2460317460317</v>
       </c>
       <c r="W22" t="n">
-        <v>25.7936507936508</v>
+        <v>4.96031746031746</v>
       </c>
       <c r="X22" t="n">
-        <v>10.9126984126984</v>
+        <v>0.480712530132986</v>
       </c>
       <c r="Y22" t="n">
-        <v>26.7857142857143</v>
+        <v>0.117465574095303</v>
       </c>
       <c r="Z22" t="n">
-        <v>94.2460317460317</v>
+        <v>42.9718875502008</v>
       </c>
       <c r="AA22" t="n">
-        <v>4.96031746031746</v>
+        <v>14.4578313253012</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.480712530132986</v>
+        <v>44.578313253012</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.117465574095303</v>
+        <v>13.6546184738956</v>
       </c>
       <c r="AD22" t="n">
-        <v>42.9718875502008</v>
+        <v>0.177849483670398</v>
       </c>
       <c r="AE22" t="n">
-        <v>14.4578313253012</v>
+        <v>36.0742705570292</v>
       </c>
       <c r="AF22" t="n">
-        <v>44.578313253012</v>
+        <v>5.83554376657825</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.6546184738956</v>
+        <v>36.8700265251989</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.177849483670398</v>
+        <v>25.1989389920424</v>
       </c>
       <c r="AI22" t="n">
-        <v>36.0742705570292</v>
+        <v>0.185397472367285</v>
       </c>
       <c r="AJ22" t="n">
-        <v>5.83554376657825</v>
+        <v>36.6412213740458</v>
       </c>
       <c r="AK22" t="n">
-        <v>36.8700265251989</v>
+        <v>7.12468193384224</v>
       </c>
       <c r="AL22" t="n">
-        <v>25.1989389920424</v>
+        <v>37.4045801526718</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.185397472367285</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>36.6412213740458</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>7.12468193384224</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>37.4045801526718</v>
-      </c>
-      <c r="AQ22" t="n">
         <v>27.735368956743</v>
       </c>
     </row>
@@ -44802,7 +44526,7 @@
         <v>148</v>
       </c>
       <c r="F23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G23" t="n">
         <v>0.982026712592294</v>
@@ -44829,90 +44553,78 @@
         <v>14.5385587863464</v>
       </c>
       <c r="O23" t="n">
-        <v>44.0959308184167</v>
+        <v>0.648577343764314</v>
       </c>
       <c r="P23" t="n">
-        <v>3.93883995346518</v>
+        <v>49.0112994350282</v>
       </c>
       <c r="Q23" t="n">
-        <v>24.2188798404521</v>
+        <v>9.88700564971751</v>
       </c>
       <c r="R23" t="n">
-        <v>1.4853747714808</v>
+        <v>98.8700564971751</v>
       </c>
       <c r="S23" t="n">
-        <v>0.648577343764314</v>
+        <v>16.5254237288136</v>
       </c>
       <c r="T23" t="n">
-        <v>49.0112994350282</v>
+        <v>13.7005649717514</v>
       </c>
       <c r="U23" t="n">
-        <v>9.88700564971751</v>
+        <v>16.9491525423729</v>
       </c>
       <c r="V23" t="n">
-        <v>98.8700564971751</v>
+        <v>96.4689265536723</v>
       </c>
       <c r="W23" t="n">
-        <v>16.5254237288136</v>
+        <v>2.96610169491525</v>
       </c>
       <c r="X23" t="n">
-        <v>13.7005649717514</v>
+        <v>0.53864898041443</v>
       </c>
       <c r="Y23" t="n">
-        <v>16.9491525423729</v>
+        <v>0.0742016452611715</v>
       </c>
       <c r="Z23" t="n">
-        <v>96.4689265536723</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="AA23" t="n">
-        <v>2.96610169491525</v>
+        <v>20.9876543209877</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.53864898041443</v>
+        <v>46.9135802469136</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.0742016452611715</v>
+        <v>16.0493827160494</v>
       </c>
       <c r="AD23" t="n">
-        <v>44.4444444444444</v>
+        <v>0.221688866088932</v>
       </c>
       <c r="AE23" t="n">
-        <v>20.9876543209877</v>
+        <v>41.7355371900826</v>
       </c>
       <c r="AF23" t="n">
-        <v>46.9135802469136</v>
+        <v>8.67768595041322</v>
       </c>
       <c r="AG23" t="n">
-        <v>16.0493827160494</v>
+        <v>42.9752066115703</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.221688866088932</v>
+        <v>39.2561983471074</v>
       </c>
       <c r="AI23" t="n">
-        <v>41.7355371900826</v>
+        <v>0.242758469064326</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8.67768595041322</v>
+        <v>26.4150943396226</v>
       </c>
       <c r="AK23" t="n">
-        <v>42.9752066115703</v>
+        <v>9.43396226415094</v>
       </c>
       <c r="AL23" t="n">
-        <v>39.2561983471074</v>
+        <v>26.7924528301887</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.242758469064326</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>26.4150943396226</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>9.43396226415094</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>26.7924528301887</v>
-      </c>
-      <c r="AQ23" t="n">
         <v>15.0943396226415</v>
       </c>
     </row>
@@ -44933,7 +44645,7 @@
         <v>148</v>
       </c>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G24" t="n">
         <v>0.874614714335878</v>
@@ -44960,90 +44672,78 @@
         <v>20.0433369447454</v>
       </c>
       <c r="O24" t="n">
-        <v>70.8870348935506</v>
+        <v>1.03848304743078</v>
       </c>
       <c r="P24" t="n">
-        <v>2.61256839874692</v>
+        <v>67.0945522855354</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.3489952894878</v>
+        <v>8.32811521603006</v>
       </c>
       <c r="R24" t="n">
-        <v>2.13463717130761</v>
+        <v>98.9668127739512</v>
       </c>
       <c r="S24" t="n">
-        <v>1.03848304743078</v>
+        <v>13.055729492799</v>
       </c>
       <c r="T24" t="n">
-        <v>67.0945522855354</v>
+        <v>3.9448966812774</v>
       </c>
       <c r="U24" t="n">
-        <v>8.32811521603006</v>
+        <v>13.3688165309956</v>
       </c>
       <c r="V24" t="n">
-        <v>98.9668127739512</v>
+        <v>95.835942391985</v>
       </c>
       <c r="W24" t="n">
-        <v>13.055729492799</v>
+        <v>1.18973074514715</v>
       </c>
       <c r="X24" t="n">
-        <v>3.9448966812774</v>
+        <v>0.256857109414626</v>
       </c>
       <c r="Y24" t="n">
-        <v>13.3688165309956</v>
+        <v>0.0367403207137376</v>
       </c>
       <c r="Z24" t="n">
-        <v>95.835942391985</v>
+        <v>51.3274336283186</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.18973074514715</v>
+        <v>14.1592920353982</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.256857109414626</v>
+        <v>51.3274336283186</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.0367403207137376</v>
+        <v>11.5044247787611</v>
       </c>
       <c r="AD24" t="n">
-        <v>51.3274336283186</v>
+        <v>0.109895826559675</v>
       </c>
       <c r="AE24" t="n">
-        <v>14.1592920353982</v>
+        <v>41.1242603550296</v>
       </c>
       <c r="AF24" t="n">
-        <v>51.3274336283186</v>
+        <v>4.14201183431953</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5044247787611</v>
+        <v>41.1242603550296</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.109895826559675</v>
+        <v>23.3727810650888</v>
       </c>
       <c r="AI24" t="n">
-        <v>41.1242603550296</v>
+        <v>0.110220962141213</v>
       </c>
       <c r="AJ24" t="n">
-        <v>4.14201183431953</v>
+        <v>34.8082595870207</v>
       </c>
       <c r="AK24" t="n">
-        <v>41.1242603550296</v>
+        <v>8.84955752212389</v>
       </c>
       <c r="AL24" t="n">
-        <v>23.3727810650888</v>
+        <v>35.1032448377581</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.110220962141213</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>34.8082595870207</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>8.84955752212389</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>35.1032448377581</v>
-      </c>
-      <c r="AQ24" t="n">
         <v>12.094395280236</v>
       </c>
     </row>
@@ -45064,7 +44764,7 @@
         <v>148</v>
       </c>
       <c r="F25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G25" t="n">
         <v>0.709232755642037</v>
@@ -45091,90 +44791,78 @@
         <v>11.304347826087</v>
       </c>
       <c r="O25" t="n">
-        <v>72.0798705195585</v>
+        <v>0.398261470475913</v>
       </c>
       <c r="P25" t="n">
-        <v>2.75002522958926</v>
+        <v>42.9223744292237</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.8545766474922</v>
+        <v>15.9817351598174</v>
       </c>
       <c r="R25" t="n">
-        <v>3.16379049349077</v>
+        <v>99.0867579908676</v>
       </c>
       <c r="S25" t="n">
-        <v>0.398261470475913</v>
+        <v>10.958904109589</v>
       </c>
       <c r="T25" t="n">
-        <v>42.9223744292237</v>
+        <v>12.7853881278539</v>
       </c>
       <c r="U25" t="n">
-        <v>15.9817351598174</v>
+        <v>10.958904109589</v>
       </c>
       <c r="V25" t="n">
-        <v>99.0867579908676</v>
+        <v>94.9771689497717</v>
       </c>
       <c r="W25" t="n">
-        <v>10.958904109589</v>
+        <v>0.45662100456621</v>
       </c>
       <c r="X25" t="n">
-        <v>12.7853881278539</v>
+        <v>0.236410918547346</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.958904109589</v>
+        <v>0.0363709105457455</v>
       </c>
       <c r="Z25" t="n">
-        <v>94.9771689497717</v>
+        <v>50</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.45662100456621</v>
+        <v>20</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.236410918547346</v>
+        <v>60</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.0363709105457455</v>
+        <v>25</v>
       </c>
       <c r="AD25" t="n">
-        <v>50</v>
+        <v>0.0891087308370765</v>
       </c>
       <c r="AE25" t="n">
-        <v>20</v>
+        <v>12.2448979591837</v>
       </c>
       <c r="AF25" t="n">
-        <v>60</v>
+        <v>8.16326530612245</v>
       </c>
       <c r="AG25" t="n">
-        <v>25</v>
+        <v>18.3673469387755</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.0891087308370765</v>
+        <v>26.530612244898</v>
       </c>
       <c r="AI25" t="n">
-        <v>12.2448979591837</v>
+        <v>0.110931277164524</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8.16326530612245</v>
+        <v>4.91803278688525</v>
       </c>
       <c r="AK25" t="n">
-        <v>18.3673469387755</v>
+        <v>4.91803278688525</v>
       </c>
       <c r="AL25" t="n">
-        <v>26.530612244898</v>
+        <v>4.91803278688525</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.110931277164524</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.91803278688525</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>4.91803278688525</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>4.91803278688525</v>
-      </c>
-      <c r="AQ25" t="n">
         <v>8.19672131147541</v>
       </c>
     </row>
@@ -45195,7 +44883,7 @@
         <v>148</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G26" t="n">
         <v>1.21325536062378</v>
@@ -45222,90 +44910,78 @@
         <v>3.00673924313116</v>
       </c>
       <c r="O26" t="n">
-        <v>82.4561403508772</v>
+        <v>0.14990253411306</v>
       </c>
       <c r="P26" t="n">
-        <v>0.817494089834515</v>
+        <v>37.3211963589077</v>
       </c>
       <c r="Q26" t="n">
-        <v>19.6829787234043</v>
+        <v>37.7113133940182</v>
       </c>
       <c r="R26" t="n">
-        <v>1.92860520094563</v>
+        <v>98.4395318595579</v>
       </c>
       <c r="S26" t="n">
-        <v>0.14990253411306</v>
+        <v>6.63198959687906</v>
       </c>
       <c r="T26" t="n">
-        <v>37.3211963589077</v>
+        <v>3.5110533159948</v>
       </c>
       <c r="U26" t="n">
-        <v>37.7113133940182</v>
+        <v>7.41222366710013</v>
       </c>
       <c r="V26" t="n">
-        <v>98.4395318595579</v>
+        <v>93.7581274382315</v>
       </c>
       <c r="W26" t="n">
-        <v>6.63198959687906</v>
+        <v>1.04031209362809</v>
       </c>
       <c r="X26" t="n">
-        <v>3.5110533159948</v>
+        <v>0.295321637426901</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.41222366710013</v>
+        <v>0.0463937621832359</v>
       </c>
       <c r="Z26" t="n">
-        <v>93.7581274382315</v>
+        <v>19.327731092437</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.04031209362809</v>
+        <v>18.4873949579832</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.295321637426901</v>
+        <v>20.1680672268908</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.0463937621832359</v>
+        <v>9.66386554621849</v>
       </c>
       <c r="AD26" t="n">
-        <v>19.327731092437</v>
+        <v>0.107602339181287</v>
       </c>
       <c r="AE26" t="n">
-        <v>18.4873949579832</v>
+        <v>19.2028985507246</v>
       </c>
       <c r="AF26" t="n">
-        <v>20.1680672268908</v>
+        <v>6.70289855072464</v>
       </c>
       <c r="AG26" t="n">
-        <v>9.66386554621849</v>
+        <v>20.2898550724638</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.107602339181287</v>
+        <v>25.5434782608696</v>
       </c>
       <c r="AI26" t="n">
-        <v>19.2028985507246</v>
+        <v>0.141325536062378</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6.70289855072464</v>
+        <v>17.3793103448276</v>
       </c>
       <c r="AK26" t="n">
-        <v>20.2898550724638</v>
+        <v>7.44827586206896</v>
       </c>
       <c r="AL26" t="n">
-        <v>25.5434782608696</v>
+        <v>17.5172413793103</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.141325536062378</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>17.3793103448276</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>7.44827586206896</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>17.5172413793103</v>
-      </c>
-      <c r="AQ26" t="n">
         <v>27.448275862069</v>
       </c>
     </row>
@@ -45353,90 +45029,78 @@
         <v>20.6367924528302</v>
       </c>
       <c r="O27" t="n">
-        <v>56.033727126756</v>
+        <v>2.46592768990901</v>
       </c>
       <c r="P27" t="n">
-        <v>53.4864404667968</v>
+        <v>10.6480025165146</v>
       </c>
       <c r="Q27" t="n">
-        <v>96.3799714827581</v>
+        <v>13.7150047184649</v>
       </c>
       <c r="R27" t="n">
-        <v>3.25110400487285</v>
+        <v>84.6807172066688</v>
       </c>
       <c r="S27" t="n">
-        <v>2.46592768990901</v>
+        <v>17.7571563384712</v>
       </c>
       <c r="T27" t="n">
-        <v>10.6480025165146</v>
+        <v>27.3356401384083</v>
       </c>
       <c r="U27" t="n">
-        <v>13.7150047184649</v>
+        <v>18.5435671594841</v>
       </c>
       <c r="V27" t="n">
-        <v>84.6807172066688</v>
+        <v>92.6391947153193</v>
       </c>
       <c r="W27" t="n">
-        <v>17.7571563384712</v>
+        <v>1.99748348537276</v>
       </c>
       <c r="X27" t="n">
-        <v>27.3356401384083</v>
+        <v>0.679506969600596</v>
       </c>
       <c r="Y27" t="n">
-        <v>18.5435671594841</v>
+        <v>0.105882079167216</v>
       </c>
       <c r="Z27" t="n">
-        <v>92.6391947153193</v>
+        <v>20.5128205128205</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.99748348537276</v>
+        <v>6.59340659340659</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.679506969600596</v>
+        <v>23.8095238095238</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.105882079167216</v>
+        <v>18.6813186813187</v>
       </c>
       <c r="AD27" t="n">
-        <v>20.5128205128205</v>
+        <v>0.102391461172693</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.59340659340659</v>
+        <v>49.6212121212121</v>
       </c>
       <c r="AF27" t="n">
-        <v>23.8095238095238</v>
+        <v>12.1212121212121</v>
       </c>
       <c r="AG27" t="n">
-        <v>18.6813186813187</v>
+        <v>52.6515151515151</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.102391461172693</v>
+        <v>14.3939393939394</v>
       </c>
       <c r="AI27" t="n">
-        <v>49.6212121212121</v>
+        <v>0.471233429260687</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12.1212121212121</v>
+        <v>83.0452674897119</v>
       </c>
       <c r="AK27" t="n">
-        <v>52.6515151515151</v>
+        <v>5.02057613168724</v>
       </c>
       <c r="AL27" t="n">
-        <v>14.3939393939394</v>
+        <v>85.9259259259259</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.471233429260687</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>83.0452674897119</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>5.02057613168724</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>85.9259259259259</v>
-      </c>
-      <c r="AQ27" t="n">
         <v>1.81069958847737</v>
       </c>
     </row>
@@ -45484,90 +45148,78 @@
         <v>29.7341115434501</v>
       </c>
       <c r="O28" t="n">
-        <v>65.6948207171315</v>
+        <v>1.24621513944223</v>
       </c>
       <c r="P28" t="n">
-        <v>56.036605334336</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.1805402258421</v>
+        <v>22.2826086956522</v>
       </c>
       <c r="R28" t="n">
-        <v>5.1226848763448</v>
+        <v>94.5652173913043</v>
       </c>
       <c r="S28" t="n">
-        <v>1.24621513944223</v>
+        <v>8.12020460358056</v>
       </c>
       <c r="T28" t="n">
-        <v>10.8695652173913</v>
+        <v>8.4079283887468</v>
       </c>
       <c r="U28" t="n">
-        <v>22.2826086956522</v>
+        <v>8.80754475703325</v>
       </c>
       <c r="V28" t="n">
-        <v>94.5652173913043</v>
+        <v>89.7218670076726</v>
       </c>
       <c r="W28" t="n">
-        <v>8.12020460358056</v>
+        <v>0.911125319693095</v>
       </c>
       <c r="X28" t="n">
-        <v>8.4079283887468</v>
+        <v>0.360159362549801</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.80754475703325</v>
+        <v>0.0535856573705179</v>
       </c>
       <c r="Z28" t="n">
-        <v>89.7218670076726</v>
+        <v>21.1895910780669</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.911125319693095</v>
+        <v>8.55018587360595</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.360159362549801</v>
+        <v>24.5353159851301</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0535856573705179</v>
+        <v>18.9591078066914</v>
       </c>
       <c r="AD28" t="n">
-        <v>21.1895910780669</v>
+        <v>0.0589641434262948</v>
       </c>
       <c r="AE28" t="n">
-        <v>8.55018587360595</v>
+        <v>53.3783783783784</v>
       </c>
       <c r="AF28" t="n">
-        <v>24.5353159851301</v>
+        <v>9.45945945945946</v>
       </c>
       <c r="AG28" t="n">
-        <v>18.9591078066914</v>
+        <v>56.0810810810811</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.0589641434262948</v>
+        <v>14.1891891891892</v>
       </c>
       <c r="AI28" t="n">
-        <v>53.3783783783784</v>
+        <v>0.247609561752988</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9.45945945945946</v>
+        <v>70.3942075623492</v>
       </c>
       <c r="AK28" t="n">
-        <v>56.0810810810811</v>
+        <v>4.42477876106195</v>
       </c>
       <c r="AL28" t="n">
-        <v>14.1891891891892</v>
+        <v>72.1641190667739</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.247609561752988</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>70.3942075623492</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>4.42477876106195</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>72.1641190667739</v>
-      </c>
-      <c r="AQ28" t="n">
         <v>0.482703137570394</v>
       </c>
     </row>
@@ -45615,90 +45267,78 @@
         <v>15.6944444444444</v>
       </c>
       <c r="O29" t="n">
-        <v>55.1127548259065</v>
+        <v>2.39310842504059</v>
       </c>
       <c r="P29" t="n">
-        <v>72.486824445972</v>
+        <v>18.582736524689</v>
       </c>
       <c r="Q29" t="n">
-        <v>76.0630462535598</v>
+        <v>30.98379193366</v>
       </c>
       <c r="R29" t="n">
-        <v>2.92480932272742</v>
+        <v>89.7097625329815</v>
       </c>
       <c r="S29" t="n">
-        <v>2.39310842504059</v>
+        <v>14.6249528835281</v>
       </c>
       <c r="T29" t="n">
-        <v>18.582736524689</v>
+        <v>37.1654730493781</v>
       </c>
       <c r="U29" t="n">
-        <v>30.98379193366</v>
+        <v>15.2657369016208</v>
       </c>
       <c r="V29" t="n">
-        <v>89.7097625329815</v>
+        <v>90.3505465510742</v>
       </c>
       <c r="W29" t="n">
-        <v>14.6249528835281</v>
+        <v>3.20392009046363</v>
       </c>
       <c r="X29" t="n">
-        <v>37.1654730493781</v>
+        <v>1.28991520837092</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.2657369016208</v>
+        <v>0.276925852426484</v>
       </c>
       <c r="Z29" t="n">
-        <v>90.3505465510742</v>
+        <v>1.62866449511401</v>
       </c>
       <c r="AA29" t="n">
-        <v>3.20392009046363</v>
+        <v>5.86319218241042</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.28991520837092</v>
+        <v>3.58306188925081</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.276925852426484</v>
+        <v>5.53745928338762</v>
       </c>
       <c r="AD29" t="n">
-        <v>1.62866449511401</v>
+        <v>0.38877863972578</v>
       </c>
       <c r="AE29" t="n">
-        <v>5.86319218241042</v>
+        <v>30.1624129930394</v>
       </c>
       <c r="AF29" t="n">
-        <v>3.58306188925081</v>
+        <v>12.0649651972158</v>
       </c>
       <c r="AG29" t="n">
-        <v>5.53745928338762</v>
+        <v>31.7865429234339</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.38877863972578</v>
+        <v>8.12064965197216</v>
       </c>
       <c r="AI29" t="n">
-        <v>30.1624129930394</v>
+        <v>0.624210716218654</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12.0649651972158</v>
+        <v>58.5260115606936</v>
       </c>
       <c r="AK29" t="n">
-        <v>31.7865429234339</v>
+        <v>5.49132947976879</v>
       </c>
       <c r="AL29" t="n">
-        <v>8.12064965197216</v>
+        <v>60.4046242774566</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.624210716218654</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>58.5260115606936</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>5.49132947976879</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>60.4046242774566</v>
-      </c>
-      <c r="AQ29" t="n">
         <v>2.74566473988439</v>
       </c>
     </row>
@@ -45746,90 +45386,78 @@
         <v>12.2020972354623</v>
       </c>
       <c r="O30" t="n">
-        <v>34.9389784946237</v>
+        <v>0.21491935483871</v>
       </c>
       <c r="P30" t="n">
-        <v>40.1467997199418</v>
+        <v>10.1313320825516</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.6164588029822</v>
+        <v>27.3295809881176</v>
       </c>
       <c r="R30" t="n">
-        <v>16.4311049217914</v>
+        <v>85.6160100062539</v>
       </c>
       <c r="S30" t="n">
-        <v>0.21491935483871</v>
+        <v>9.19324577861163</v>
       </c>
       <c r="T30" t="n">
-        <v>10.1313320825516</v>
+        <v>11.6322701688555</v>
       </c>
       <c r="U30" t="n">
-        <v>27.3295809881176</v>
+        <v>9.88117573483427</v>
       </c>
       <c r="V30" t="n">
-        <v>85.6160100062539</v>
+        <v>76.2976860537836</v>
       </c>
       <c r="W30" t="n">
-        <v>9.19324577861163</v>
+        <v>5.81613508442777</v>
       </c>
       <c r="X30" t="n">
-        <v>11.6322701688555</v>
+        <v>0.145698924731183</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.88117573483427</v>
+        <v>0.0438172043010753</v>
       </c>
       <c r="Z30" t="n">
-        <v>76.2976860537836</v>
+        <v>27.9141104294479</v>
       </c>
       <c r="AA30" t="n">
-        <v>5.81613508442777</v>
+        <v>8.28220858895705</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.145698924731183</v>
+        <v>30.0613496932515</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.0438172043010753</v>
+        <v>18.4049079754601</v>
       </c>
       <c r="AD30" t="n">
-        <v>27.9141104294479</v>
+        <v>0.0649193548387097</v>
       </c>
       <c r="AE30" t="n">
-        <v>8.28220858895705</v>
+        <v>44.7204968944099</v>
       </c>
       <c r="AF30" t="n">
-        <v>30.0613496932515</v>
+        <v>16.1490683229814</v>
       </c>
       <c r="AG30" t="n">
-        <v>18.4049079754601</v>
+        <v>46.7908902691511</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.0649193548387097</v>
+        <v>11.8012422360248</v>
       </c>
       <c r="AI30" t="n">
-        <v>44.7204968944099</v>
+        <v>0.0369623655913979</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16.1490683229814</v>
+        <v>52</v>
       </c>
       <c r="AK30" t="n">
-        <v>46.7908902691511</v>
+        <v>6.90909090909091</v>
       </c>
       <c r="AL30" t="n">
-        <v>11.8012422360248</v>
+        <v>54.5454545454545</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.0369623655913979</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>52</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>6.90909090909091</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>54.5454545454545</v>
-      </c>
-      <c r="AQ30" t="n">
         <v>5.09090909090909</v>
       </c>
     </row>
@@ -45877,90 +45505,78 @@
         <v>23.8322717622081</v>
       </c>
       <c r="O31" t="n">
-        <v>53.3308203991131</v>
+        <v>1.7290465631929</v>
       </c>
       <c r="P31" t="n">
-        <v>59.4461213527245</v>
+        <v>5.29622980251346</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.2885806703753</v>
+        <v>25.0448833034111</v>
       </c>
       <c r="R31" t="n">
-        <v>2.88580670375267</v>
+        <v>86.6632469864068</v>
       </c>
       <c r="S31" t="n">
-        <v>1.7290465631929</v>
+        <v>18.261092587843</v>
       </c>
       <c r="T31" t="n">
-        <v>5.29622980251346</v>
+        <v>16.1836368299564</v>
       </c>
       <c r="U31" t="n">
-        <v>25.0448833034111</v>
+        <v>19.9281867145422</v>
       </c>
       <c r="V31" t="n">
-        <v>86.6632469864068</v>
+        <v>90.0102590407797</v>
       </c>
       <c r="W31" t="n">
-        <v>18.261092587843</v>
+        <v>2.38522698127725</v>
       </c>
       <c r="X31" t="n">
-        <v>16.1836368299564</v>
+        <v>0.311308203991131</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.9281867145422</v>
+        <v>0.0649667405764967</v>
       </c>
       <c r="Z31" t="n">
-        <v>90.0102590407797</v>
+        <v>26.6211604095563</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.38522698127725</v>
+        <v>8.87372013651877</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.311308203991131</v>
+        <v>27.9863481228669</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.0649667405764967</v>
+        <v>28.6689419795222</v>
       </c>
       <c r="AD31" t="n">
-        <v>26.6211604095563</v>
+        <v>0.0740576496674058</v>
       </c>
       <c r="AE31" t="n">
-        <v>8.87372013651877</v>
+        <v>53.8922155688623</v>
       </c>
       <c r="AF31" t="n">
-        <v>27.9863481228669</v>
+        <v>11.6766467065868</v>
       </c>
       <c r="AG31" t="n">
-        <v>28.6689419795222</v>
+        <v>56.5868263473054</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.0740576496674058</v>
+        <v>9.2814371257485</v>
       </c>
       <c r="AI31" t="n">
-        <v>53.8922155688623</v>
+        <v>0.172283813747228</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11.6766467065868</v>
+        <v>82.3680823680824</v>
       </c>
       <c r="AK31" t="n">
-        <v>56.5868263473054</v>
+        <v>5.14800514800515</v>
       </c>
       <c r="AL31" t="n">
-        <v>9.2814371257485</v>
+        <v>83.3976833976834</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.172283813747228</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>82.3680823680824</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>5.14800514800515</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>83.3976833976834</v>
-      </c>
-      <c r="AQ31" t="n">
         <v>6.04890604890605</v>
       </c>
     </row>
@@ -45981,7 +45597,7 @@
         <v>148</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G32" t="n">
         <v>0.124355826281234</v>
@@ -46008,90 +45624,78 @@
         <v>5.01474926253687</v>
       </c>
       <c r="O32" t="n">
-        <v>73.4913952091391</v>
+        <v>0.493998250587529</v>
       </c>
       <c r="P32" t="n">
-        <v>93.065558666528</v>
+        <v>64.16</v>
       </c>
       <c r="Q32" t="n">
-        <v>96.498184203828</v>
+        <v>3.57333333333333</v>
       </c>
       <c r="R32" t="n">
-        <v>13.4738170437476</v>
+        <v>99.04</v>
       </c>
       <c r="S32" t="n">
-        <v>0.493998250587529</v>
+        <v>9.33333333333333</v>
       </c>
       <c r="T32" t="n">
-        <v>64.16</v>
+        <v>19.7333333333333</v>
       </c>
       <c r="U32" t="n">
-        <v>3.57333333333333</v>
+        <v>9.33333333333333</v>
       </c>
       <c r="V32" t="n">
-        <v>99.04</v>
+        <v>98.3466666666667</v>
       </c>
       <c r="W32" t="n">
-        <v>9.33333333333333</v>
+        <v>0.746666666666667</v>
       </c>
       <c r="X32" t="n">
-        <v>19.7333333333333</v>
+        <v>0.223418942132386</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.33333333333333</v>
+        <v>0.046369969121816</v>
       </c>
       <c r="Z32" t="n">
-        <v>98.3466666666667</v>
+        <v>22.1590909090909</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.746666666666667</v>
+        <v>10.7954545454545</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.223418942132386</v>
+        <v>22.1590909090909</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.046369969121816</v>
+        <v>5.11363636363636</v>
       </c>
       <c r="AD32" t="n">
-        <v>22.1590909090909</v>
+        <v>0.0779858571594178</v>
       </c>
       <c r="AE32" t="n">
-        <v>10.7954545454545</v>
+        <v>53.0405405405405</v>
       </c>
       <c r="AF32" t="n">
-        <v>22.1590909090909</v>
+        <v>5.4054054054054</v>
       </c>
       <c r="AG32" t="n">
-        <v>5.11363636363636</v>
+        <v>53.3783783783784</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.0779858571594178</v>
+        <v>9.12162162162162</v>
       </c>
       <c r="AI32" t="n">
-        <v>53.0405405405405</v>
+        <v>0.0990631158511524</v>
       </c>
       <c r="AJ32" t="n">
-        <v>5.4054054054054</v>
+        <v>65.9574468085106</v>
       </c>
       <c r="AK32" t="n">
-        <v>53.3783783783784</v>
+        <v>6.11702127659574</v>
       </c>
       <c r="AL32" t="n">
-        <v>9.12162162162162</v>
+        <v>65.9574468085106</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.0990631158511524</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>65.9574468085106</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>6.11702127659574</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>65.9574468085106</v>
-      </c>
-      <c r="AQ32" t="n">
         <v>10.9042553191489</v>
       </c>
     </row>
@@ -46112,7 +45716,7 @@
         <v>148</v>
       </c>
       <c r="F33" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G33" t="n">
         <v>0.217102095116835</v>
@@ -46139,90 +45743,78 @@
         <v>9.05233380480905</v>
       </c>
       <c r="O33" t="n">
-        <v>76.9431045599602</v>
+        <v>0.701909029325106</v>
       </c>
       <c r="P33" t="n">
-        <v>42.7301560361928</v>
+        <v>75.3488372093023</v>
       </c>
       <c r="Q33" t="n">
-        <v>92.0942369501342</v>
+        <v>4.30232558139535</v>
       </c>
       <c r="R33" t="n">
-        <v>14.4580102468363</v>
+        <v>94.7674418604651</v>
       </c>
       <c r="S33" t="n">
-        <v>0.701909029325106</v>
+        <v>8.6046511627907</v>
       </c>
       <c r="T33" t="n">
-        <v>75.3488372093023</v>
+        <v>16.7441860465116</v>
       </c>
       <c r="U33" t="n">
-        <v>4.30232558139535</v>
+        <v>8.6046511627907</v>
       </c>
       <c r="V33" t="n">
-        <v>94.7674418604651</v>
+        <v>92.2093023255814</v>
       </c>
       <c r="W33" t="n">
-        <v>8.6046511627907</v>
+        <v>0.465116279069767</v>
       </c>
       <c r="X33" t="n">
-        <v>16.7441860465116</v>
+        <v>0.334631048864295</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.6046511627907</v>
+        <v>0.110183394138243</v>
       </c>
       <c r="Z33" t="n">
-        <v>92.2093023255814</v>
+        <v>25.1851851851852</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.465116279069767</v>
+        <v>8.14814814814815</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.334631048864295</v>
+        <v>25.9259259259259</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.110183394138243</v>
+        <v>8.14814814814815</v>
       </c>
       <c r="AD33" t="n">
-        <v>25.1851851851852</v>
+        <v>0.109367220848331</v>
       </c>
       <c r="AE33" t="n">
-        <v>8.14814814814815</v>
+        <v>56.7164179104478</v>
       </c>
       <c r="AF33" t="n">
-        <v>25.9259259259259</v>
+        <v>13.4328358208955</v>
       </c>
       <c r="AG33" t="n">
-        <v>8.14814814814815</v>
+        <v>58.955223880597</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.109367220848331</v>
+        <v>20.8955223880597</v>
       </c>
       <c r="AI33" t="n">
-        <v>56.7164179104478</v>
+        <v>0.115080433877721</v>
       </c>
       <c r="AJ33" t="n">
-        <v>13.4328358208955</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="AK33" t="n">
-        <v>58.955223880597</v>
+        <v>11.3475177304965</v>
       </c>
       <c r="AL33" t="n">
-        <v>20.8955223880597</v>
+        <v>70.9219858156028</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.115080433877721</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>66.6666666666667</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>11.3475177304965</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>70.9219858156028</v>
-      </c>
-      <c r="AQ33" t="n">
         <v>5.67375886524823</v>
       </c>
     </row>
@@ -46243,7 +45835,7 @@
         <v>148</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G34" t="n">
         <v>0.202739726027397</v>
@@ -46270,90 +45862,78 @@
         <v>5.51224944320713</v>
       </c>
       <c r="O34" t="n">
-        <v>66.7239726027397</v>
+        <v>0.797488584474886</v>
       </c>
       <c r="P34" t="n">
-        <v>92.7846269131671</v>
+        <v>72.5164614944174</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.9750283147021</v>
+        <v>3.77898654451761</v>
       </c>
       <c r="R34" t="n">
-        <v>12.0143301477155</v>
+        <v>94.3887775551102</v>
       </c>
       <c r="S34" t="n">
-        <v>0.797488584474886</v>
+        <v>14.4288577154309</v>
       </c>
       <c r="T34" t="n">
-        <v>72.5164614944174</v>
+        <v>38.2765531062124</v>
       </c>
       <c r="U34" t="n">
-        <v>3.77898654451761</v>
+        <v>14.715144574864</v>
       </c>
       <c r="V34" t="n">
-        <v>94.3887775551102</v>
+        <v>91.5831663326653</v>
       </c>
       <c r="W34" t="n">
-        <v>14.4288577154309</v>
+        <v>0.429430289149728</v>
       </c>
       <c r="X34" t="n">
-        <v>38.2765531062124</v>
+        <v>0.335616438356164</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.715144574864</v>
+        <v>0.0719178082191781</v>
       </c>
       <c r="Z34" t="n">
-        <v>91.5831663326653</v>
+        <v>31.4285714285714</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.429430289149728</v>
+        <v>10.4761904761905</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.335616438356164</v>
+        <v>31.7460317460317</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.0719178082191781</v>
+        <v>7.93650793650794</v>
       </c>
       <c r="AD34" t="n">
-        <v>31.4285714285714</v>
+        <v>0.127397260273973</v>
       </c>
       <c r="AE34" t="n">
-        <v>10.4761904761905</v>
+        <v>68.9964157706093</v>
       </c>
       <c r="AF34" t="n">
-        <v>31.7460317460317</v>
+        <v>3.9426523297491</v>
       </c>
       <c r="AG34" t="n">
-        <v>7.93650793650794</v>
+        <v>69.5340501792115</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.127397260273973</v>
+        <v>9.31899641577061</v>
       </c>
       <c r="AI34" t="n">
-        <v>68.9964157706093</v>
+        <v>0.136301369863014</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3.9426523297491</v>
+        <v>82.2445561139028</v>
       </c>
       <c r="AK34" t="n">
-        <v>69.5340501792115</v>
+        <v>7.53768844221105</v>
       </c>
       <c r="AL34" t="n">
-        <v>9.31899641577061</v>
+        <v>82.7470686767169</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.136301369863014</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>82.2445561139028</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>7.53768844221105</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>82.7470686767169</v>
-      </c>
-      <c r="AQ34" t="n">
         <v>12.5628140703518</v>
       </c>
     </row>
@@ -46374,7 +45954,7 @@
         <v>148</v>
       </c>
       <c r="F35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G35" t="n">
         <v>0.0840318994880581</v>
@@ -46401,90 +45981,78 @@
         <v>13.0620985010707</v>
       </c>
       <c r="O35" t="n">
-        <v>65.7153929307145</v>
+        <v>0.224764935038447</v>
       </c>
       <c r="P35" t="n">
-        <v>88.9290990577164</v>
+        <v>70.5989110707804</v>
       </c>
       <c r="Q35" t="n">
-        <v>93.921091509516</v>
+        <v>4.71869328493648</v>
       </c>
       <c r="R35" t="n">
-        <v>4.43767147947212</v>
+        <v>98.3666061705989</v>
       </c>
       <c r="S35" t="n">
-        <v>0.224764935038447</v>
+        <v>11.4337568058076</v>
       </c>
       <c r="T35" t="n">
-        <v>70.5989110707804</v>
+        <v>18.6932849364791</v>
       </c>
       <c r="U35" t="n">
-        <v>4.71869328493648</v>
+        <v>11.7967332123412</v>
       </c>
       <c r="V35" t="n">
-        <v>98.3666061705989</v>
+        <v>93.6479128856624</v>
       </c>
       <c r="W35" t="n">
-        <v>11.4337568058076</v>
+        <v>0.725952813067151</v>
       </c>
       <c r="X35" t="n">
-        <v>18.6932849364791</v>
+        <v>0.121968630810337</v>
       </c>
       <c r="Y35" t="n">
-        <v>11.7967332123412</v>
+        <v>0.073018009749332</v>
       </c>
       <c r="Z35" t="n">
-        <v>93.6479128856624</v>
+        <v>20.1117318435754</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.725952813067151</v>
+        <v>6.14525139664804</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.121968630810337</v>
+        <v>20.1117318435754</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.073018009749332</v>
+        <v>5.02793296089385</v>
       </c>
       <c r="AD35" t="n">
-        <v>20.1117318435754</v>
+        <v>0.0277386852679027</v>
       </c>
       <c r="AE35" t="n">
-        <v>6.14525139664804</v>
+        <v>51.4705882352941</v>
       </c>
       <c r="AF35" t="n">
-        <v>20.1117318435754</v>
+        <v>8.82352941176471</v>
       </c>
       <c r="AG35" t="n">
-        <v>5.02793296089385</v>
+        <v>54.4117647058823</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.0277386852679027</v>
+        <v>16.1764705882353</v>
       </c>
       <c r="AI35" t="n">
-        <v>51.4705882352941</v>
+        <v>0.021211935793102</v>
       </c>
       <c r="AJ35" t="n">
-        <v>8.82352941176471</v>
+        <v>63.4615384615385</v>
       </c>
       <c r="AK35" t="n">
-        <v>54.4117647058823</v>
+        <v>7.69230769230769</v>
       </c>
       <c r="AL35" t="n">
-        <v>16.1764705882353</v>
+        <v>67.3076923076923</v>
       </c>
       <c r="AM35" t="n">
-        <v>0.021211935793102</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>63.4615384615385</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>7.69230769230769</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>67.3076923076923</v>
-      </c>
-      <c r="AQ35" t="n">
         <v>13.4615384615385</v>
       </c>
     </row>
@@ -46505,7 +46073,7 @@
         <v>148</v>
       </c>
       <c r="F36" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G36" t="n">
         <v>0.183290155440414</v>
@@ -46532,90 +46100,78 @@
         <v>6.63176265270506</v>
       </c>
       <c r="O36" t="n">
-        <v>64.5</v>
+        <v>0.448834196891192</v>
       </c>
       <c r="P36" t="n">
-        <v>86.7062296662248</v>
+        <v>73.8816738816739</v>
       </c>
       <c r="Q36" t="n">
-        <v>83.748041932763</v>
+        <v>11.5440115440115</v>
       </c>
       <c r="R36" t="n">
-        <v>7.24284050287183</v>
+        <v>98.4126984126984</v>
       </c>
       <c r="S36" t="n">
-        <v>0.448834196891192</v>
+        <v>3.60750360750361</v>
       </c>
       <c r="T36" t="n">
-        <v>73.8816738816739</v>
+        <v>17.3160173160173</v>
       </c>
       <c r="U36" t="n">
-        <v>11.5440115440115</v>
+        <v>3.8961038961039</v>
       </c>
       <c r="V36" t="n">
-        <v>98.4126984126984</v>
+        <v>91.7748917748918</v>
       </c>
       <c r="W36" t="n">
-        <v>3.60750360750361</v>
+        <v>0.721500721500722</v>
       </c>
       <c r="X36" t="n">
-        <v>17.3160173160173</v>
+        <v>0.178756476683938</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.8961038961039</v>
+        <v>0.0595854922279793</v>
       </c>
       <c r="Z36" t="n">
-        <v>91.7748917748918</v>
+        <v>11.9565217391304</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.721500721500722</v>
+        <v>14.1304347826087</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.178756476683938</v>
+        <v>11.9565217391304</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.0595854922279793</v>
+        <v>7.60869565217391</v>
       </c>
       <c r="AD36" t="n">
-        <v>11.9565217391304</v>
+        <v>0.0835492227979275</v>
       </c>
       <c r="AE36" t="n">
-        <v>14.1304347826087</v>
+        <v>26.3565891472868</v>
       </c>
       <c r="AF36" t="n">
-        <v>11.9565217391304</v>
+        <v>12.4031007751938</v>
       </c>
       <c r="AG36" t="n">
-        <v>7.60869565217391</v>
+        <v>27.906976744186</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.0835492227979275</v>
+        <v>17.0542635658915</v>
       </c>
       <c r="AI36" t="n">
-        <v>26.3565891472868</v>
+        <v>0.0356217616580311</v>
       </c>
       <c r="AJ36" t="n">
-        <v>12.4031007751938</v>
+        <v>38.1818181818182</v>
       </c>
       <c r="AK36" t="n">
-        <v>27.906976744186</v>
+        <v>10.9090909090909</v>
       </c>
       <c r="AL36" t="n">
-        <v>17.0542635658915</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.0356217616580311</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>38.1818181818182</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>10.9090909090909</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>40</v>
-      </c>
-      <c r="AQ36" t="n">
         <v>21.8181818181818</v>
       </c>
     </row>
@@ -46663,90 +46219,78 @@
         <v>10.2623906705539</v>
       </c>
       <c r="O37" t="n">
-        <v>34.8055852846988</v>
+        <v>2.27250958851627</v>
       </c>
       <c r="P37" t="n">
-        <v>7.65024707163283</v>
+        <v>11.4165292285138</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.309515548164</v>
+        <v>33.6998350742166</v>
       </c>
       <c r="R37" t="n">
-        <v>3.6683855992534</v>
+        <v>78.0831958951805</v>
       </c>
       <c r="S37" t="n">
-        <v>2.27250958851627</v>
+        <v>31.9772768920652</v>
       </c>
       <c r="T37" t="n">
-        <v>11.4165292285138</v>
+        <v>57.9256001466007</v>
       </c>
       <c r="U37" t="n">
-        <v>33.6998350742166</v>
+        <v>35.2757925600147</v>
       </c>
       <c r="V37" t="n">
-        <v>78.0831958951805</v>
+        <v>86.1462341946124</v>
       </c>
       <c r="W37" t="n">
-        <v>31.9772768920652</v>
+        <v>7.87978742899029</v>
       </c>
       <c r="X37" t="n">
-        <v>57.9256001466007</v>
+        <v>0.79498273858852</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.2757925600147</v>
+        <v>0.393118756012343</v>
       </c>
       <c r="Z37" t="n">
-        <v>86.1462341946124</v>
+        <v>40.4661016949153</v>
       </c>
       <c r="AA37" t="n">
-        <v>7.87978742899029</v>
+        <v>10.593220338983</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.79498273858852</v>
+        <v>44.9152542372881</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.393118756012343</v>
+        <v>41.9491525423729</v>
       </c>
       <c r="AD37" t="n">
-        <v>40.4661016949153</v>
+        <v>0.209052558811649</v>
       </c>
       <c r="AE37" t="n">
-        <v>10.593220338983</v>
+        <v>67.9282868525896</v>
       </c>
       <c r="AF37" t="n">
-        <v>44.9152542372881</v>
+        <v>3.78486055776892</v>
       </c>
       <c r="AG37" t="n">
-        <v>41.9491525423729</v>
+        <v>74.3027888446215</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.209052558811649</v>
+        <v>28.6852589641434</v>
       </c>
       <c r="AI37" t="n">
-        <v>67.9282868525896</v>
+        <v>0.192811423764529</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3.78486055776892</v>
+        <v>73.866090712743</v>
       </c>
       <c r="AK37" t="n">
-        <v>74.3027888446215</v>
+        <v>11.6630669546436</v>
       </c>
       <c r="AL37" t="n">
-        <v>28.6852589641434</v>
+        <v>77.9697624190065</v>
       </c>
       <c r="AM37" t="n">
-        <v>0.192811423764529</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>73.866090712743</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>11.6630669546436</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>77.9697624190065</v>
-      </c>
-      <c r="AQ37" t="n">
         <v>18.3585313174946</v>
       </c>
     </row>
@@ -46794,90 +46338,78 @@
         <v>18.8448074679113</v>
       </c>
       <c r="O38" t="n">
-        <v>55.9780876494024</v>
+        <v>0.515737051792829</v>
       </c>
       <c r="P38" t="n">
-        <v>4.04932208818192</v>
+        <v>23.7157203553496</v>
       </c>
       <c r="Q38" t="n">
-        <v>93.3568200419914</v>
+        <v>49.4013132483584</v>
       </c>
       <c r="R38" t="n">
-        <v>2.81128785452475</v>
+        <v>92.8930088837389</v>
       </c>
       <c r="S38" t="n">
-        <v>0.515737051792829</v>
+        <v>29.9729625337968</v>
       </c>
       <c r="T38" t="n">
-        <v>23.7157203553496</v>
+        <v>45.4615681730398</v>
       </c>
       <c r="U38" t="n">
-        <v>49.4013132483584</v>
+        <v>32.6767091541136</v>
       </c>
       <c r="V38" t="n">
-        <v>92.8930088837389</v>
+        <v>90.1120123599845</v>
       </c>
       <c r="W38" t="n">
-        <v>29.9729625337968</v>
+        <v>2.20162224797219</v>
       </c>
       <c r="X38" t="n">
-        <v>45.4615681730398</v>
+        <v>0.453386454183267</v>
       </c>
       <c r="Y38" t="n">
-        <v>32.6767091541136</v>
+        <v>0.0683266932270916</v>
       </c>
       <c r="Z38" t="n">
-        <v>90.1120123599845</v>
+        <v>27.9883381924198</v>
       </c>
       <c r="AA38" t="n">
-        <v>2.20162224797219</v>
+        <v>11.9533527696793</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.453386454183267</v>
+        <v>39.9416909620991</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.0683266932270916</v>
+        <v>26.530612244898</v>
       </c>
       <c r="AD38" t="n">
-        <v>27.9883381924198</v>
+        <v>0.097211155378486</v>
       </c>
       <c r="AE38" t="n">
-        <v>11.9533527696793</v>
+        <v>52.2540983606557</v>
       </c>
       <c r="AF38" t="n">
-        <v>39.9416909620991</v>
+        <v>11.8852459016393</v>
       </c>
       <c r="AG38" t="n">
-        <v>26.530612244898</v>
+        <v>54.9180327868852</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.097211155378486</v>
+        <v>10.655737704918</v>
       </c>
       <c r="AI38" t="n">
-        <v>52.2540983606557</v>
+        <v>0.287848605577689</v>
       </c>
       <c r="AJ38" t="n">
-        <v>11.8852459016393</v>
+        <v>62.1453287197232</v>
       </c>
       <c r="AK38" t="n">
-        <v>54.9180327868852</v>
+        <v>6.08996539792388</v>
       </c>
       <c r="AL38" t="n">
-        <v>10.655737704918</v>
+        <v>64.4290657439446</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.287848605577689</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>62.1453287197232</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>6.08996539792388</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>64.4290657439446</v>
-      </c>
-      <c r="AQ38" t="n">
         <v>1.3840830449827</v>
       </c>
     </row>
@@ -46925,90 +46457,78 @@
         <v>10.9314857582756</v>
       </c>
       <c r="O39" t="n">
-        <v>35.9100486223663</v>
+        <v>1.17244732576985</v>
       </c>
       <c r="P39" t="n">
-        <v>4.94978900097037</v>
+        <v>31.9048935581974</v>
       </c>
       <c r="Q39" t="n">
-        <v>96.1261932164376</v>
+        <v>28.9742880840476</v>
       </c>
       <c r="R39" t="n">
-        <v>2.15512377857514</v>
+        <v>92.9499585291678</v>
       </c>
       <c r="S39" t="n">
-        <v>1.17244732576985</v>
+        <v>35.153442079071</v>
       </c>
       <c r="T39" t="n">
-        <v>31.9048935581974</v>
+        <v>34.8907934752557</v>
       </c>
       <c r="U39" t="n">
-        <v>28.9742880840476</v>
+        <v>36.4666850981476</v>
       </c>
       <c r="V39" t="n">
-        <v>92.9499585291678</v>
+        <v>68.9936411390655</v>
       </c>
       <c r="W39" t="n">
-        <v>35.153442079071</v>
+        <v>45.687033453138</v>
       </c>
       <c r="X39" t="n">
-        <v>34.8907934752557</v>
+        <v>0.52998379254457</v>
       </c>
       <c r="Y39" t="n">
-        <v>36.4666850981476</v>
+        <v>0.159481361426256</v>
       </c>
       <c r="Z39" t="n">
-        <v>68.9936411390655</v>
+        <v>28.9634146341463</v>
       </c>
       <c r="AA39" t="n">
-        <v>45.687033453138</v>
+        <v>6.30081300813008</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.52998379254457</v>
+        <v>31.5040650406504</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.159481361426256</v>
+        <v>53.5569105691057</v>
       </c>
       <c r="AD39" t="n">
-        <v>28.9634146341463</v>
+        <v>0.120583468395462</v>
       </c>
       <c r="AE39" t="n">
-        <v>6.30081300813008</v>
+        <v>51.3440860215054</v>
       </c>
       <c r="AF39" t="n">
-        <v>31.5040650406504</v>
+        <v>10.6182795698925</v>
       </c>
       <c r="AG39" t="n">
-        <v>53.5569105691057</v>
+        <v>54.3010752688172</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.120583468395462</v>
+        <v>34.8118279569892</v>
       </c>
       <c r="AI39" t="n">
-        <v>51.3440860215054</v>
+        <v>0.249918962722852</v>
       </c>
       <c r="AJ39" t="n">
-        <v>10.6182795698925</v>
+        <v>82.1660181582361</v>
       </c>
       <c r="AK39" t="n">
-        <v>54.3010752688172</v>
+        <v>6.48508430609598</v>
       </c>
       <c r="AL39" t="n">
-        <v>34.8118279569892</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="AM39" t="n">
-        <v>0.249918962722852</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>82.1660181582361</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>6.48508430609598</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>83.3333333333333</v>
-      </c>
-      <c r="AQ39" t="n">
         <v>12.4513618677043</v>
       </c>
     </row>
@@ -47056,90 +46576,78 @@
         <v>7.59219088937093</v>
       </c>
       <c r="O40" t="n">
-        <v>38.1508230452675</v>
+        <v>0.245061728395062</v>
       </c>
       <c r="P40" t="n">
-        <v>5.43165797435994</v>
+        <v>5.96137699412259</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.1373420418201</v>
+        <v>42.3173803526448</v>
       </c>
       <c r="R40" t="n">
-        <v>15.0863208081418</v>
+        <v>79.4290512174643</v>
       </c>
       <c r="S40" t="n">
-        <v>0.245061728395062</v>
+        <v>22.8379513014274</v>
       </c>
       <c r="T40" t="n">
-        <v>5.96137699412259</v>
+        <v>34.4248530646516</v>
       </c>
       <c r="U40" t="n">
-        <v>42.3173803526448</v>
+        <v>28.9672544080605</v>
       </c>
       <c r="V40" t="n">
-        <v>79.4290512174643</v>
+        <v>72.0403022670025</v>
       </c>
       <c r="W40" t="n">
-        <v>22.8379513014274</v>
+        <v>6.04534005037783</v>
       </c>
       <c r="X40" t="n">
-        <v>34.4248530646516</v>
+        <v>0.176748971193416</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.9672544080605</v>
+        <v>0.0679012345679012</v>
       </c>
       <c r="Z40" t="n">
-        <v>72.0403022670025</v>
+        <v>24.2424242424242</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.04534005037783</v>
+        <v>23.9393939393939</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.176748971193416</v>
+        <v>56.6666666666667</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.0679012345679012</v>
+        <v>29.6969696969697</v>
       </c>
       <c r="AD40" t="n">
-        <v>24.2424242424242</v>
+        <v>0.0460905349794239</v>
       </c>
       <c r="AE40" t="n">
-        <v>23.9393939393939</v>
+        <v>66.0714285714286</v>
       </c>
       <c r="AF40" t="n">
-        <v>56.6666666666667</v>
+        <v>6.69642857142857</v>
       </c>
       <c r="AG40" t="n">
-        <v>29.6969696969697</v>
+        <v>72.7678571428571</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.0460905349794239</v>
+        <v>22.7678571428571</v>
       </c>
       <c r="AI40" t="n">
-        <v>66.0714285714286</v>
+        <v>0.0627572016460905</v>
       </c>
       <c r="AJ40" t="n">
-        <v>6.69642857142857</v>
+        <v>57.3770491803279</v>
       </c>
       <c r="AK40" t="n">
-        <v>72.7678571428571</v>
+        <v>12.4590163934426</v>
       </c>
       <c r="AL40" t="n">
-        <v>22.7678571428571</v>
+        <v>66.2295081967213</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.0627572016460905</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>57.3770491803279</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>12.4590163934426</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>66.2295081967213</v>
-      </c>
-      <c r="AQ40" t="n">
         <v>4.59016393442623</v>
       </c>
     </row>
@@ -47187,90 +46695,78 @@
         <v>3.22867298578199</v>
       </c>
       <c r="O41" t="n">
-        <v>35.8598949211909</v>
+        <v>1.01978984238179</v>
       </c>
       <c r="P41" t="n">
-        <v>2.53272123461614</v>
+        <v>12.0212948651898</v>
       </c>
       <c r="Q41" t="n">
-        <v>96.1051963274077</v>
+        <v>37.4377468658767</v>
       </c>
       <c r="R41" t="n">
-        <v>3.08214495018558</v>
+        <v>88.9404087240254</v>
       </c>
       <c r="S41" t="n">
-        <v>1.01978984238179</v>
+        <v>36.527563111798</v>
       </c>
       <c r="T41" t="n">
-        <v>12.0212948651898</v>
+        <v>58.5952258286107</v>
       </c>
       <c r="U41" t="n">
-        <v>37.4377468658767</v>
+        <v>39.8935256740512</v>
       </c>
       <c r="V41" t="n">
-        <v>88.9404087240254</v>
+        <v>94.3843379701185</v>
       </c>
       <c r="W41" t="n">
-        <v>36.527563111798</v>
+        <v>8.98162459213464</v>
       </c>
       <c r="X41" t="n">
-        <v>58.5952258286107</v>
+        <v>0.58231173380035</v>
       </c>
       <c r="Y41" t="n">
-        <v>39.8935256740512</v>
+        <v>0.0933450087565674</v>
       </c>
       <c r="Z41" t="n">
-        <v>94.3843379701185</v>
+        <v>23.4521575984991</v>
       </c>
       <c r="AA41" t="n">
-        <v>8.98162459213464</v>
+        <v>4.69043151969981</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.58231173380035</v>
+        <v>26.4540337711069</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.0933450087565674</v>
+        <v>26.266416510319</v>
       </c>
       <c r="AD41" t="n">
-        <v>23.4521575984991</v>
+        <v>0.12907180385289</v>
       </c>
       <c r="AE41" t="n">
-        <v>4.69043151969981</v>
+        <v>53.3242876526459</v>
       </c>
       <c r="AF41" t="n">
-        <v>26.4540337711069</v>
+        <v>3.52781546811398</v>
       </c>
       <c r="AG41" t="n">
-        <v>26.266416510319</v>
+        <v>56.1736770691995</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.12907180385289</v>
+        <v>23.6092265943012</v>
       </c>
       <c r="AI41" t="n">
-        <v>53.3242876526459</v>
+        <v>0.359894921190893</v>
       </c>
       <c r="AJ41" t="n">
-        <v>3.52781546811398</v>
+        <v>76.5936739659367</v>
       </c>
       <c r="AK41" t="n">
-        <v>56.1736770691995</v>
+        <v>7.8345498783455</v>
       </c>
       <c r="AL41" t="n">
-        <v>23.6092265943012</v>
+        <v>78.5888077858881</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.359894921190893</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>76.5936739659367</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>7.8345498783455</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>78.5888077858881</v>
-      </c>
-      <c r="AQ41" t="n">
         <v>13.6739659367397</v>
       </c>
     </row>
@@ -47291,7 +46787,7 @@
         <v>148</v>
       </c>
       <c r="F42" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G42" t="n">
         <v>0.328927454343659</v>
@@ -47318,90 +46814,78 @@
         <v>18.4210526315789</v>
       </c>
       <c r="O42" t="n">
-        <v>87.3480644401843</v>
+        <v>0.371977264319107</v>
       </c>
       <c r="P42" t="n">
-        <v>0.6668925579103</v>
+        <v>13.5623869801085</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.793617545589</v>
+        <v>2.35081374321881</v>
       </c>
       <c r="R42" t="n">
-        <v>9.67533267619517</v>
+        <v>98.7341772151899</v>
       </c>
       <c r="S42" t="n">
-        <v>0.371977264319107</v>
+        <v>39.2405063291139</v>
       </c>
       <c r="T42" t="n">
-        <v>13.5623869801085</v>
+        <v>0.54249547920434</v>
       </c>
       <c r="U42" t="n">
-        <v>2.35081374321881</v>
+        <v>39.2405063291139</v>
       </c>
       <c r="V42" t="n">
-        <v>98.7341772151899</v>
+        <v>94.2133815551537</v>
       </c>
       <c r="W42" t="n">
-        <v>39.2405063291139</v>
+        <v>1.44665461121157</v>
       </c>
       <c r="X42" t="n">
-        <v>0.54249547920434</v>
+        <v>0.123095550398547</v>
       </c>
       <c r="Y42" t="n">
-        <v>39.2405063291139</v>
+        <v>0.0632294084014395</v>
       </c>
       <c r="Z42" t="n">
-        <v>94.2133815551537</v>
+        <v>76.5957446808511</v>
       </c>
       <c r="AA42" t="n">
-        <v>1.44665461121157</v>
+        <v>6.38297872340426</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.123095550398547</v>
+        <v>76.5957446808511</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.0632294084014395</v>
+        <v>5.31914893617021</v>
       </c>
       <c r="AD42" t="n">
-        <v>76.5957446808511</v>
+        <v>0.0309420509198534</v>
       </c>
       <c r="AE42" t="n">
-        <v>6.38297872340426</v>
+        <v>50</v>
       </c>
       <c r="AF42" t="n">
-        <v>76.5957446808511</v>
+        <v>4.34782608695652</v>
       </c>
       <c r="AG42" t="n">
-        <v>5.31914893617021</v>
+        <v>50</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.0309420509198534</v>
+        <v>15.2173913043478</v>
       </c>
       <c r="AI42" t="n">
-        <v>50</v>
+        <v>0.0289240910772542</v>
       </c>
       <c r="AJ42" t="n">
-        <v>4.34782608695652</v>
+        <v>60.4651162790698</v>
       </c>
       <c r="AK42" t="n">
-        <v>50</v>
+        <v>13.953488372093</v>
       </c>
       <c r="AL42" t="n">
-        <v>15.2173913043478</v>
+        <v>60.4651162790698</v>
       </c>
       <c r="AM42" t="n">
-        <v>0.0289240910772542</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>60.4651162790698</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>13.953488372093</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>60.4651162790698</v>
-      </c>
-      <c r="AQ42" t="n">
         <v>11.6279069767442</v>
       </c>
     </row>
@@ -47422,7 +46906,7 @@
         <v>148</v>
       </c>
       <c r="F43" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G43" t="n">
         <v>0.681998869720974</v>
@@ -47449,90 +46933,78 @@
         <v>8.03212851405623</v>
       </c>
       <c r="O43" t="n">
-        <v>70.0284485483577</v>
+        <v>1.17050929606605</v>
       </c>
       <c r="P43" t="n">
-        <v>0.778289950621674</v>
+        <v>51.1456628477905</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.8591144729103</v>
+        <v>5.48281505728314</v>
       </c>
       <c r="R43" t="n">
-        <v>4.15270349751741</v>
+        <v>98.6088379705401</v>
       </c>
       <c r="S43" t="n">
-        <v>1.17050929606605</v>
+        <v>42.7986906710311</v>
       </c>
       <c r="T43" t="n">
-        <v>51.1456628477905</v>
+        <v>0.16366612111293</v>
       </c>
       <c r="U43" t="n">
-        <v>5.48281505728314</v>
+        <v>43.8625204582651</v>
       </c>
       <c r="V43" t="n">
-        <v>98.6088379705401</v>
+        <v>96.8903436988543</v>
       </c>
       <c r="W43" t="n">
-        <v>42.7986906710311</v>
+        <v>1.96399345335516</v>
       </c>
       <c r="X43" t="n">
-        <v>0.16366612111293</v>
+        <v>0.390808341076064</v>
       </c>
       <c r="Y43" t="n">
-        <v>43.8625204582651</v>
+        <v>0.0986599488500848</v>
       </c>
       <c r="Z43" t="n">
-        <v>96.8903436988543</v>
+        <v>90.2912621359223</v>
       </c>
       <c r="AA43" t="n">
-        <v>1.96399345335516</v>
+        <v>12.621359223301</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.390808341076064</v>
+        <v>92.2330097087379</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.0986599488500848</v>
+        <v>14.5631067961165</v>
       </c>
       <c r="AD43" t="n">
-        <v>90.2912621359223</v>
+        <v>0.0795026772287091</v>
       </c>
       <c r="AE43" t="n">
-        <v>12.621359223301</v>
+        <v>68.6746987951807</v>
       </c>
       <c r="AF43" t="n">
-        <v>92.2330097087379</v>
+        <v>7.2289156626506</v>
       </c>
       <c r="AG43" t="n">
-        <v>14.5631067961165</v>
+        <v>68.6746987951807</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.0795026772287091</v>
+        <v>8.43373493975904</v>
       </c>
       <c r="AI43" t="n">
-        <v>68.6746987951807</v>
+        <v>0.21264571499727</v>
       </c>
       <c r="AJ43" t="n">
-        <v>7.2289156626506</v>
+        <v>72.5225225225225</v>
       </c>
       <c r="AK43" t="n">
-        <v>68.6746987951807</v>
+        <v>4.95495495495495</v>
       </c>
       <c r="AL43" t="n">
-        <v>8.43373493975904</v>
+        <v>72.5225225225225</v>
       </c>
       <c r="AM43" t="n">
-        <v>0.21264571499727</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>72.5225225225225</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>4.95495495495495</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>72.5225225225225</v>
-      </c>
-      <c r="AQ43" t="n">
         <v>2.25225225225225</v>
       </c>
     </row>
@@ -47553,7 +47025,7 @@
         <v>148</v>
       </c>
       <c r="F44" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G44" t="n">
         <v>0.843296551435332</v>
@@ -47580,90 +47052,78 @@
         <v>22.1498371335505</v>
       </c>
       <c r="O44" t="n">
-        <v>71.7503507192362</v>
+        <v>0.997717707657196</v>
       </c>
       <c r="P44" t="n">
-        <v>0.711320575768409</v>
+        <v>90.7660020986359</v>
       </c>
       <c r="Q44" t="n">
-        <v>99.9109937330833</v>
+        <v>1.67890870933893</v>
       </c>
       <c r="R44" t="n">
-        <v>7.17667743982958</v>
+        <v>99.685204616999</v>
       </c>
       <c r="S44" t="n">
-        <v>0.997717707657196</v>
+        <v>37.1983210912907</v>
       </c>
       <c r="T44" t="n">
-        <v>90.7660020986359</v>
+        <v>0.0524658971668416</v>
       </c>
       <c r="U44" t="n">
-        <v>1.67890870933893</v>
+        <v>37.2507869884575</v>
       </c>
       <c r="V44" t="n">
-        <v>99.685204616999</v>
+        <v>96.4323189926548</v>
       </c>
       <c r="W44" t="n">
-        <v>37.1983210912907</v>
+        <v>0.68205666316894</v>
       </c>
       <c r="X44" t="n">
-        <v>0.0524658971668416</v>
+        <v>0.249691157687556</v>
       </c>
       <c r="Y44" t="n">
-        <v>37.2507869884575</v>
+        <v>0.0868946167214556</v>
       </c>
       <c r="Z44" t="n">
-        <v>96.4323189926548</v>
+        <v>92.1686746987952</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.68205666316894</v>
+        <v>6.02409638554217</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.249691157687556</v>
+        <v>92.1686746987952</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.0868946167214556</v>
+        <v>6.62650602409639</v>
       </c>
       <c r="AD44" t="n">
-        <v>92.1686746987952</v>
+        <v>0.0355953851630059</v>
       </c>
       <c r="AE44" t="n">
-        <v>6.02409638554217</v>
+        <v>75</v>
       </c>
       <c r="AF44" t="n">
-        <v>92.1686746987952</v>
+        <v>8.82352941176471</v>
       </c>
       <c r="AG44" t="n">
-        <v>6.62650602409639</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.0355953851630059</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="AI44" t="n">
-        <v>75</v>
+        <v>0.127201155803095</v>
       </c>
       <c r="AJ44" t="n">
-        <v>8.82352941176471</v>
+        <v>86.4197530864197</v>
       </c>
       <c r="AK44" t="n">
-        <v>75</v>
+        <v>3.7037037037037</v>
       </c>
       <c r="AL44" t="n">
-        <v>5.88235294117647</v>
+        <v>86.4197530864197</v>
       </c>
       <c r="AM44" t="n">
-        <v>0.127201155803095</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>86.4197530864197</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>3.7037037037037</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>86.4197530864197</v>
-      </c>
-      <c r="AQ44" t="n">
         <v>4.11522633744856</v>
       </c>
     </row>
@@ -47684,7 +47144,7 @@
         <v>148</v>
       </c>
       <c r="F45" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G45" t="n">
         <v>0.122987417852426</v>
@@ -47711,90 +47171,78 @@
         <v>25.4385964912281</v>
       </c>
       <c r="O45" t="n">
-        <v>83.1951061702253</v>
+        <v>0.221377352134366</v>
       </c>
       <c r="P45" t="n">
-        <v>0.615101809954751</v>
+        <v>17.6328502415459</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.8290312628548</v>
+        <v>1.69082125603865</v>
       </c>
       <c r="R45" t="n">
-        <v>3.79537741670095</v>
+        <v>92.512077294686</v>
       </c>
       <c r="S45" t="n">
-        <v>0.221377352134366</v>
+        <v>26.3285024154589</v>
       </c>
       <c r="T45" t="n">
-        <v>17.6328502415459</v>
+        <v>0.483091787439614</v>
       </c>
       <c r="U45" t="n">
+        <v>27.0531400966184</v>
+      </c>
+      <c r="V45" t="n">
+        <v>79.2270531400966</v>
+      </c>
+      <c r="W45" t="n">
         <v>1.69082125603865</v>
       </c>
-      <c r="V45" t="n">
-        <v>92.512077294686</v>
-      </c>
-      <c r="W45" t="n">
-        <v>26.3285024154589</v>
-      </c>
       <c r="X45" t="n">
-        <v>0.483091787439614</v>
+        <v>0.0497296950446765</v>
       </c>
       <c r="Y45" t="n">
-        <v>27.0531400966184</v>
+        <v>0.0165765650148922</v>
       </c>
       <c r="Z45" t="n">
-        <v>79.2270531400966</v>
+        <v>64.5161290322581</v>
       </c>
       <c r="AA45" t="n">
-        <v>1.69082125603865</v>
+        <v>16.1290322580645</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.0497296950446765</v>
+        <v>67.741935483871</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.0165765650148922</v>
+        <v>6.45161290322581</v>
       </c>
       <c r="AD45" t="n">
-        <v>64.5161290322581</v>
+        <v>0.010694558074124</v>
       </c>
       <c r="AE45" t="n">
-        <v>16.1290322580645</v>
+        <v>60</v>
       </c>
       <c r="AF45" t="n">
-        <v>67.741935483871</v>
+        <v>25</v>
       </c>
       <c r="AG45" t="n">
-        <v>6.45161290322581</v>
+        <v>65</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.010694558074124</v>
+        <v>10</v>
       </c>
       <c r="AI45" t="n">
-        <v>60</v>
+        <v>0.0224585719556604</v>
       </c>
       <c r="AJ45" t="n">
-        <v>25</v>
+        <v>54.7619047619048</v>
       </c>
       <c r="AK45" t="n">
-        <v>65</v>
+        <v>14.2857142857143</v>
       </c>
       <c r="AL45" t="n">
-        <v>10</v>
+        <v>54.7619047619048</v>
       </c>
       <c r="AM45" t="n">
-        <v>0.0224585719556604</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>54.7619047619048</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>14.2857142857143</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>54.7619047619048</v>
-      </c>
-      <c r="AQ45" t="n">
         <v>11.9047619047619</v>
       </c>
     </row>
@@ -47815,7 +47263,7 @@
         <v>148</v>
       </c>
       <c r="F46" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G46" t="n">
         <v>0.507453219156359</v>
@@ -47842,90 +47290,78 @@
         <v>13.953488372093</v>
       </c>
       <c r="O46" t="n">
-        <v>62.7101173485569</v>
+        <v>0.612511893434824</v>
       </c>
       <c r="P46" t="n">
-        <v>1.21380705525351</v>
+        <v>17.4757281553398</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.7502844860286</v>
+        <v>4.20711974110032</v>
       </c>
       <c r="R46" t="n">
-        <v>3.71096219496776</v>
+        <v>88.673139158576</v>
       </c>
       <c r="S46" t="n">
-        <v>0.612511893434824</v>
+        <v>7.11974110032362</v>
       </c>
       <c r="T46" t="n">
-        <v>17.4757281553398</v>
+        <v>0.323624595469256</v>
       </c>
       <c r="U46" t="n">
-        <v>4.20711974110032</v>
+        <v>7.11974110032362</v>
       </c>
       <c r="V46" t="n">
-        <v>88.673139158576</v>
+        <v>44.0129449838188</v>
       </c>
       <c r="W46" t="n">
-        <v>7.11974110032362</v>
+        <v>2.9126213592233</v>
       </c>
       <c r="X46" t="n">
-        <v>0.323624595469256</v>
+        <v>0.222010783380907</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.11974110032362</v>
+        <v>0.0911830003171583</v>
       </c>
       <c r="Z46" t="n">
-        <v>44.0129449838188</v>
+        <v>23.9130434782609</v>
       </c>
       <c r="AA46" t="n">
-        <v>2.9126213592233</v>
+        <v>6.52173913043478</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.222010783380907</v>
+        <v>26.0869565217391</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.0911830003171583</v>
+        <v>13.0434782608696</v>
       </c>
       <c r="AD46" t="n">
-        <v>23.9130434782609</v>
+        <v>0.0436092610212496</v>
       </c>
       <c r="AE46" t="n">
-        <v>6.52173913043478</v>
+        <v>36.3636363636364</v>
       </c>
       <c r="AF46" t="n">
-        <v>26.0869565217391</v>
+        <v>13.6363636363636</v>
       </c>
       <c r="AG46" t="n">
-        <v>13.0434782608696</v>
+        <v>36.3636363636364</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.0436092610212496</v>
+        <v>18.1818181818182</v>
       </c>
       <c r="AI46" t="n">
-        <v>36.3636363636364</v>
+        <v>0.0872185220424992</v>
       </c>
       <c r="AJ46" t="n">
-        <v>13.6363636363636</v>
+        <v>54.5454545454545</v>
       </c>
       <c r="AK46" t="n">
-        <v>36.3636363636364</v>
+        <v>15.9090909090909</v>
       </c>
       <c r="AL46" t="n">
-        <v>18.1818181818182</v>
+        <v>63.6363636363636</v>
       </c>
       <c r="AM46" t="n">
-        <v>0.0872185220424992</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>54.5454545454545</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>15.9090909090909</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>63.6363636363636</v>
-      </c>
-      <c r="AQ46" t="n">
         <v>9.09090909090909</v>
       </c>
     </row>
@@ -47963,7 +47399,7 @@
         <v>211</v>
       </c>
       <c r="G1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H1" t="s">
         <v>123</v>
@@ -47975,7 +47411,7 @@
         <v>125</v>
       </c>
       <c r="K1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2">
@@ -47995,7 +47431,7 @@
         <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -48030,7 +47466,7 @@
         <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -48065,7 +47501,7 @@
         <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -48100,7 +47536,7 @@
         <v>131</v>
       </c>
       <c r="F5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -48135,7 +47571,7 @@
         <v>131</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -48170,7 +47606,7 @@
         <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -48205,7 +47641,7 @@
         <v>131</v>
       </c>
       <c r="F8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -48240,7 +47676,7 @@
         <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G9" t="n">
         <v>10</v>
@@ -48275,7 +47711,7 @@
         <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -48310,7 +47746,7 @@
         <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -48345,7 +47781,7 @@
         <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -48380,7 +47816,7 @@
         <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -48415,7 +47851,7 @@
         <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G14" t="n">
         <v>10</v>
@@ -48450,7 +47886,7 @@
         <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -48485,7 +47921,7 @@
         <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G16" t="n">
         <v>100</v>
@@ -48520,7 +47956,7 @@
         <v>131</v>
       </c>
       <c r="F17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G17" t="n">
         <v>100</v>
@@ -48555,7 +47991,7 @@
         <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -48590,7 +48026,7 @@
         <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -48625,7 +48061,7 @@
         <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -48660,7 +48096,7 @@
         <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -48695,7 +48131,7 @@
         <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G22" t="n">
         <v>10</v>
@@ -48730,7 +48166,7 @@
         <v>131</v>
       </c>
       <c r="F23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -48765,7 +48201,7 @@
         <v>131</v>
       </c>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -48800,7 +48236,7 @@
         <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -48835,7 +48271,7 @@
         <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -48870,7 +48306,7 @@
         <v>131</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -48905,7 +48341,7 @@
         <v>131</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -48940,7 +48376,7 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -48975,7 +48411,7 @@
         <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -49010,7 +48446,7 @@
         <v>131</v>
       </c>
       <c r="F31" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -49045,7 +48481,7 @@
         <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -49080,7 +48516,7 @@
         <v>131</v>
       </c>
       <c r="F33" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -49115,7 +48551,7 @@
         <v>131</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -49150,7 +48586,7 @@
         <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G35" t="n">
         <v>100</v>
@@ -49185,7 +48621,7 @@
         <v>131</v>
       </c>
       <c r="F36" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G36" t="n">
         <v>100</v>
@@ -49220,7 +48656,7 @@
         <v>131</v>
       </c>
       <c r="F37" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G37" t="n">
         <v>100</v>
@@ -49255,7 +48691,7 @@
         <v>131</v>
       </c>
       <c r="F38" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G38" t="n">
         <v>100</v>
@@ -49290,7 +48726,7 @@
         <v>131</v>
       </c>
       <c r="F39" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G39" t="n">
         <v>100</v>
@@ -49325,7 +48761,7 @@
         <v>131</v>
       </c>
       <c r="F40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G40" t="n">
         <v>100</v>
@@ -49360,7 +48796,7 @@
         <v>131</v>
       </c>
       <c r="F41" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G41" t="n">
         <v>100</v>
@@ -49395,7 +48831,7 @@
         <v>131</v>
       </c>
       <c r="F42" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -49430,7 +48866,7 @@
         <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G43" t="n">
         <v>1000</v>
@@ -49465,7 +48901,7 @@
         <v>131</v>
       </c>
       <c r="F44" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G44" t="n">
         <v>10000</v>
@@ -49500,7 +48936,7 @@
         <v>131</v>
       </c>
       <c r="F45" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G45" t="n">
         <v>10000</v>
@@ -49535,7 +48971,7 @@
         <v>131</v>
       </c>
       <c r="F46" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G46" t="n">
         <v>10000</v>
@@ -49570,7 +49006,7 @@
         <v>131</v>
       </c>
       <c r="F47" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G47" t="n">
         <v>10000</v>
@@ -49605,7 +49041,7 @@
         <v>131</v>
       </c>
       <c r="F48" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G48" t="n">
         <v>1000</v>
@@ -49640,7 +49076,7 @@
         <v>131</v>
       </c>
       <c r="F49" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G49" t="n">
         <v>1000</v>
@@ -49675,7 +49111,7 @@
         <v>131</v>
       </c>
       <c r="F50" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -49710,7 +49146,7 @@
         <v>131</v>
       </c>
       <c r="F51" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G51" t="n">
         <v>10</v>
@@ -49745,7 +49181,7 @@
         <v>131</v>
       </c>
       <c r="F52" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G52" t="n">
         <v>100</v>
@@ -49780,7 +49216,7 @@
         <v>131</v>
       </c>
       <c r="F53" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G53" t="n">
         <v>100</v>
@@ -49815,7 +49251,7 @@
         <v>131</v>
       </c>
       <c r="F54" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G54" t="n">
         <v>100</v>
@@ -49850,7 +49286,7 @@
         <v>131</v>
       </c>
       <c r="F55" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G55" t="n">
         <v>100</v>
@@ -49885,7 +49321,7 @@
         <v>131</v>
       </c>
       <c r="F56" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G56" t="n">
         <v>100</v>
@@ -49920,7 +49356,7 @@
         <v>131</v>
       </c>
       <c r="F57" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G57" t="n">
         <v>10</v>
@@ -49955,7 +49391,7 @@
         <v>131</v>
       </c>
       <c r="F58" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -49990,7 +49426,7 @@
         <v>131</v>
       </c>
       <c r="F59" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G59" t="n">
         <v>10</v>
@@ -50025,7 +49461,7 @@
         <v>131</v>
       </c>
       <c r="F60" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G60" t="n">
         <v>10</v>
@@ -50060,7 +49496,7 @@
         <v>131</v>
       </c>
       <c r="F61" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G61" t="n">
         <v>10</v>
@@ -50095,7 +49531,7 @@
         <v>131</v>
       </c>
       <c r="F62" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G62" t="n">
         <v>10</v>
@@ -50130,7 +49566,7 @@
         <v>131</v>
       </c>
       <c r="F63" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G63" t="n">
         <v>10</v>
@@ -50165,7 +49601,7 @@
         <v>131</v>
       </c>
       <c r="F64" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G64" t="n">
         <v>10</v>
@@ -50200,7 +49636,7 @@
         <v>131</v>
       </c>
       <c r="F65" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G65" t="n">
         <v>10</v>
@@ -50235,7 +49671,7 @@
         <v>131</v>
       </c>
       <c r="F66" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -50270,7 +49706,7 @@
         <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G67" t="n">
         <v>100</v>
@@ -50305,7 +49741,7 @@
         <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G68" t="n">
         <v>200</v>
@@ -50340,7 +49776,7 @@
         <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G69" t="n">
         <v>100</v>
@@ -50375,7 +49811,7 @@
         <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -50410,7 +49846,7 @@
         <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G71" t="n">
         <v>100</v>
@@ -50445,7 +49881,7 @@
         <v>131</v>
       </c>
       <c r="F72" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G72" t="n">
         <v>200</v>
@@ -50480,7 +49916,7 @@
         <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G73" t="n">
         <v>100</v>
@@ -50515,7 +49951,7 @@
         <v>131</v>
       </c>
       <c r="F74" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -50550,7 +49986,7 @@
         <v>131</v>
       </c>
       <c r="F75" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G75" t="n">
         <v>1000</v>
@@ -50585,7 +50021,7 @@
         <v>131</v>
       </c>
       <c r="F76" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G76" t="n">
         <v>200</v>
@@ -50620,7 +50056,7 @@
         <v>131</v>
       </c>
       <c r="F77" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G77" t="n">
         <v>100</v>
@@ -50655,7 +50091,7 @@
         <v>131</v>
       </c>
       <c r="F78" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -50690,7 +50126,7 @@
         <v>131</v>
       </c>
       <c r="F79" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G79" t="n">
         <v>1000</v>
@@ -50725,7 +50161,7 @@
         <v>131</v>
       </c>
       <c r="F80" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G80" t="n">
         <v>1000</v>
@@ -50760,7 +50196,7 @@
         <v>131</v>
       </c>
       <c r="F81" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G81" t="n">
         <v>100</v>
@@ -50795,7 +50231,7 @@
         <v>131</v>
       </c>
       <c r="F82" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -50830,7 +50266,7 @@
         <v>131</v>
       </c>
       <c r="F83" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G83" t="n">
         <v>1000</v>
@@ -50865,7 +50301,7 @@
         <v>131</v>
       </c>
       <c r="F84" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G84" t="n">
         <v>200</v>
@@ -50900,7 +50336,7 @@
         <v>131</v>
       </c>
       <c r="F85" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G85" t="n">
         <v>100</v>
@@ -50935,7 +50371,7 @@
         <v>131</v>
       </c>
       <c r="F86" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -50970,7 +50406,7 @@
         <v>131</v>
       </c>
       <c r="F87" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G87" t="n">
         <v>100</v>
@@ -51005,7 +50441,7 @@
         <v>131</v>
       </c>
       <c r="F88" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G88" t="n">
         <v>100</v>
@@ -51040,7 +50476,7 @@
         <v>131</v>
       </c>
       <c r="F89" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G89" t="n">
         <v>800</v>
@@ -51075,7 +50511,7 @@
         <v>131</v>
       </c>
       <c r="F90" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -51110,7 +50546,7 @@
         <v>131</v>
       </c>
       <c r="F91" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G91" t="n">
         <v>100</v>
@@ -51145,7 +50581,7 @@
         <v>131</v>
       </c>
       <c r="F92" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G92" t="n">
         <v>100</v>
@@ -51180,7 +50616,7 @@
         <v>131</v>
       </c>
       <c r="F93" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G93" t="n">
         <v>1000</v>
@@ -51215,7 +50651,7 @@
         <v>131</v>
       </c>
       <c r="F94" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -51250,7 +50686,7 @@
         <v>131</v>
       </c>
       <c r="F95" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G95" t="n">
         <v>100</v>
@@ -51285,7 +50721,7 @@
         <v>131</v>
       </c>
       <c r="F96" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G96" t="n">
         <v>100</v>
@@ -51320,7 +50756,7 @@
         <v>131</v>
       </c>
       <c r="F97" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G97" t="n">
         <v>1000</v>
@@ -51355,7 +50791,7 @@
         <v>131</v>
       </c>
       <c r="F98" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -51390,7 +50826,7 @@
         <v>131</v>
       </c>
       <c r="F99" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G99" t="n">
         <v>1000</v>
@@ -51425,7 +50861,7 @@
         <v>131</v>
       </c>
       <c r="F100" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G100" t="n">
         <v>100</v>
@@ -51460,7 +50896,7 @@
         <v>131</v>
       </c>
       <c r="F101" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G101" t="n">
         <v>1000</v>
@@ -51495,7 +50931,7 @@
         <v>131</v>
       </c>
       <c r="F102" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -51530,7 +50966,7 @@
         <v>131</v>
       </c>
       <c r="F103" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G103" t="n">
         <v>1000</v>
@@ -51565,7 +51001,7 @@
         <v>131</v>
       </c>
       <c r="F104" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G104" t="n">
         <v>100</v>
@@ -51600,7 +51036,7 @@
         <v>131</v>
       </c>
       <c r="F105" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G105" t="n">
         <v>200</v>
@@ -53221,34 +52657,34 @@
         <v>118</v>
       </c>
       <c r="B1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" t="s">
         <v>259</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>260</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>261</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>262</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>263</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>264</v>
-      </c>
-      <c r="H1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2">
@@ -53256,7 +52692,7 @@
         <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -53280,10 +52716,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
@@ -53291,7 +52727,7 @@
         <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -53315,10 +52751,10 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
@@ -53326,7 +52762,7 @@
         <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -53350,10 +52786,10 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5">
@@ -53361,7 +52797,7 @@
         <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -53385,10 +52821,10 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6">
@@ -53396,7 +52832,7 @@
         <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -53420,10 +52856,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7">
@@ -53431,7 +52867,7 @@
         <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -53455,10 +52891,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8">
@@ -53466,7 +52902,7 @@
         <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -53490,10 +52926,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9">
@@ -53501,7 +52937,7 @@
         <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -53525,10 +52961,10 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10">
@@ -53536,7 +52972,7 @@
         <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -53560,10 +52996,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K10" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11">
@@ -53571,7 +53007,7 @@
         <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -53595,10 +53031,10 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12">
@@ -53606,7 +53042,7 @@
         <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -53630,10 +53066,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13">
@@ -53641,7 +53077,7 @@
         <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -53665,10 +53101,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K13" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14">
@@ -53676,7 +53112,7 @@
         <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -53700,10 +53136,10 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15">
@@ -53711,7 +53147,7 @@
         <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -53735,10 +53171,10 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K15" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16">
@@ -53746,7 +53182,7 @@
         <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -53770,10 +53206,10 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17">
@@ -53781,7 +53217,7 @@
         <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -53805,10 +53241,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18">
@@ -53816,7 +53252,7 @@
         <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -53840,10 +53276,10 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K18" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19">
@@ -53851,7 +53287,7 @@
         <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -53875,10 +53311,10 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20">
@@ -53886,7 +53322,7 @@
         <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -53910,10 +53346,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21">
@@ -53921,7 +53357,7 @@
         <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -53945,10 +53381,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22">
@@ -53956,7 +53392,7 @@
         <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -53980,10 +53416,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K22" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23">
@@ -53991,7 +53427,7 @@
         <v>226</v>
       </c>
       <c r="B23" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -54022,7 +53458,7 @@
         <v>226</v>
       </c>
       <c r="B24" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -54053,7 +53489,7 @@
         <v>226</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -54084,7 +53520,7 @@
         <v>226</v>
       </c>
       <c r="B26" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -54115,7 +53551,7 @@
         <v>226</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -54146,7 +53582,7 @@
         <v>226</v>
       </c>
       <c r="B28" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -54177,7 +53613,7 @@
         <v>226</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -54208,7 +53644,7 @@
         <v>220</v>
       </c>
       <c r="B30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -54239,7 +53675,7 @@
         <v>220</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -54270,7 +53706,7 @@
         <v>220</v>
       </c>
       <c r="B32" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -54301,7 +53737,7 @@
         <v>220</v>
       </c>
       <c r="B33" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -54332,7 +53768,7 @@
         <v>220</v>
       </c>
       <c r="B34" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -54363,7 +53799,7 @@
         <v>220</v>
       </c>
       <c r="B35" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -54394,7 +53830,7 @@
         <v>220</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -54425,7 +53861,7 @@
         <v>222</v>
       </c>
       <c r="B37" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -54449,10 +53885,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K37" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
@@ -54460,7 +53896,7 @@
         <v>222</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -54484,10 +53920,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K38" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39">
@@ -54495,7 +53931,7 @@
         <v>222</v>
       </c>
       <c r="B39" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -54519,10 +53955,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K39" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40">
@@ -54530,7 +53966,7 @@
         <v>222</v>
       </c>
       <c r="B40" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -54554,10 +53990,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K40" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41">
@@ -54565,7 +54001,7 @@
         <v>222</v>
       </c>
       <c r="B41" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -54589,10 +54025,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K41" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42">
@@ -54600,7 +54036,7 @@
         <v>222</v>
       </c>
       <c r="B42" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -54624,10 +54060,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K42" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43">
@@ -54635,7 +54071,7 @@
         <v>222</v>
       </c>
       <c r="B43" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -54659,10 +54095,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K43" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44">
@@ -54670,7 +54106,7 @@
         <v>223</v>
       </c>
       <c r="B44" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -54701,7 +54137,7 @@
         <v>223</v>
       </c>
       <c r="B45" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -54732,7 +54168,7 @@
         <v>223</v>
       </c>
       <c r="B46" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -54763,7 +54199,7 @@
         <v>223</v>
       </c>
       <c r="B47" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -54794,7 +54230,7 @@
         <v>223</v>
       </c>
       <c r="B48" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -54825,7 +54261,7 @@
         <v>223</v>
       </c>
       <c r="B49" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -54856,7 +54292,7 @@
         <v>223</v>
       </c>
       <c r="B50" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -54887,7 +54323,7 @@
         <v>224</v>
       </c>
       <c r="B51" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -54911,10 +54347,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K51" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52">
@@ -54922,7 +54358,7 @@
         <v>224</v>
       </c>
       <c r="B52" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -54946,10 +54382,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K52" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53">
@@ -54957,7 +54393,7 @@
         <v>224</v>
       </c>
       <c r="B53" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -54981,10 +54417,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K53" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54">
@@ -54992,7 +54428,7 @@
         <v>224</v>
       </c>
       <c r="B54" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -55016,10 +54452,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K54" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55">
@@ -55027,7 +54463,7 @@
         <v>224</v>
       </c>
       <c r="B55" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -55051,10 +54487,10 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K55" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56">
@@ -55062,7 +54498,7 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -55086,10 +54522,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K56" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57">
@@ -55097,7 +54533,7 @@
         <v>224</v>
       </c>
       <c r="B57" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -55121,10 +54557,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K57" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58">
@@ -55132,7 +54568,7 @@
         <v>225</v>
       </c>
       <c r="B58" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -55156,10 +54592,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K58" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59">
@@ -55167,7 +54603,7 @@
         <v>225</v>
       </c>
       <c r="B59" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -55191,10 +54627,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K59" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60">
@@ -55202,7 +54638,7 @@
         <v>225</v>
       </c>
       <c r="B60" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -55226,10 +54662,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K60" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61">
@@ -55237,7 +54673,7 @@
         <v>225</v>
       </c>
       <c r="B61" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -55261,10 +54697,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K61" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62">
@@ -55272,7 +54708,7 @@
         <v>225</v>
       </c>
       <c r="B62" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -55296,10 +54732,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K62" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63">
@@ -55307,7 +54743,7 @@
         <v>225</v>
       </c>
       <c r="B63" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -55331,10 +54767,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K63" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64">
@@ -55342,7 +54778,7 @@
         <v>225</v>
       </c>
       <c r="B64" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -55366,10 +54802,10 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K64" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
